--- a/Data/Pinellas_RedTide_Entero.xlsx
+++ b/Data/Pinellas_RedTide_Entero.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pinellasgov-my.sharepoint.com/personal/bcc105701_bcc_pinellas_gov/Documents/Desktop/water_quality_dashboard/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Watershed\MONITORING\AMBIENT\Analysis\R\Rchive\water_quality_dashboard\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{BB860DAB-E6BE-4280-90A5-C00935327652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D03E1905-9E2F-4F5C-B05E-855BC567CB3D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F4A140-F286-488E-8D2D-0A2E3CA86430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{A3C8BE64-6FAF-4B04-9CDF-43C9CA65836E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="20">
   <si>
     <t>Site</t>
   </si>
@@ -88,15 +88,33 @@
   <si>
     <t>Fred Howard Park</t>
   </si>
+  <si>
+    <t>Sutherland Bayou Boat Ramp</t>
+  </si>
+  <si>
+    <t>Weedon Island</t>
+  </si>
+  <si>
+    <t>Riviera Bay</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0_);\(0\)"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,10 +140,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -152,11 +171,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -170,10 +194,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -473,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72952526-ADD9-47FB-9AF2-808D0D3071F7}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F277"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -522,7 +542,7 @@
       <c r="D2" s="8">
         <v>-82.726280000000003</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="10">
         <v>2000</v>
       </c>
       <c r="F2" s="2">
@@ -542,7 +562,7 @@
       <c r="D3" s="5">
         <v>-82.737459999999999</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="10">
         <v>1000</v>
       </c>
       <c r="F3" s="2">
@@ -562,7 +582,7 @@
       <c r="D4" s="5">
         <v>-82.738523000000001</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="10">
         <v>1000</v>
       </c>
       <c r="F4" s="2">
@@ -582,7 +602,7 @@
       <c r="D5" s="5">
         <v>-82.759140000000002</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="10">
         <v>0</v>
       </c>
       <c r="F5" s="2">
@@ -602,7 +622,7 @@
       <c r="D6" s="4">
         <v>-82.835544999999996</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="10">
         <v>1000</v>
       </c>
       <c r="F6" s="2">
@@ -622,7 +642,7 @@
       <c r="D7" s="4">
         <v>-82.849379999999996</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="10">
         <v>2000</v>
       </c>
       <c r="F7" s="2">
@@ -642,7 +662,7 @@
       <c r="D8" s="3">
         <v>-82.832970000000003</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="10">
         <v>0</v>
       </c>
       <c r="F8" s="9">
@@ -662,7 +682,7 @@
       <c r="D9" s="5">
         <v>-82.832233000000002</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="10">
         <v>0</v>
       </c>
       <c r="F9" s="2">
@@ -682,7 +702,7 @@
       <c r="D10" s="5">
         <v>-82.824160000000006</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="10">
         <v>0</v>
       </c>
       <c r="F10" s="2">
@@ -702,7 +722,7 @@
       <c r="D11" s="3">
         <v>-82.806610000000006</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="10">
         <v>0</v>
       </c>
       <c r="F11" s="9">
@@ -1099,7 +1119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>45600</v>
       </c>
@@ -1116,7 +1136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>45600</v>
       </c>
@@ -1133,7 +1153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>45600</v>
       </c>
@@ -1150,7 +1170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>45600</v>
       </c>
@@ -1167,7 +1187,1265 @@
         <v>0</v>
       </c>
     </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="6">
+        <v>45600</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="5">
+        <v>28.086300000000001</v>
+      </c>
+      <c r="D37" s="5">
+        <v>-82.770880000000005</v>
+      </c>
+      <c r="E37" s="10">
+        <v>0</v>
+      </c>
+      <c r="F37" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>45602</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="8">
+        <v>27.616150000000001</v>
+      </c>
+      <c r="D38" s="8">
+        <v>-82.726280000000003</v>
+      </c>
+      <c r="E38" s="10">
+        <v>15000</v>
+      </c>
+      <c r="F38" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>45602</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="5">
+        <v>27.61336</v>
+      </c>
+      <c r="D39" s="5">
+        <v>-82.737459999999999</v>
+      </c>
+      <c r="E39" s="10">
+        <v>5000</v>
+      </c>
+      <c r="F39" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>45602</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="5">
+        <v>27.698</v>
+      </c>
+      <c r="D40" s="5">
+        <v>-82.738523000000001</v>
+      </c>
+      <c r="E40" s="10">
+        <v>0</v>
+      </c>
+      <c r="F40" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>45602</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="5">
+        <v>27.742989999999999</v>
+      </c>
+      <c r="D41" s="5">
+        <v>-82.759140000000002</v>
+      </c>
+      <c r="E41" s="10">
+        <v>0</v>
+      </c>
+      <c r="F41" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>45602</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="5">
+        <v>27.801079999999999</v>
+      </c>
+      <c r="D42" s="5">
+        <v>-82.803179999999998</v>
+      </c>
+      <c r="E42" s="10">
+        <v>1000</v>
+      </c>
+      <c r="F42" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>45602</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="4">
+        <v>27.832253999999999</v>
+      </c>
+      <c r="D43" s="4">
+        <v>-82.835544999999996</v>
+      </c>
+      <c r="E43" s="10">
+        <v>0</v>
+      </c>
+      <c r="F43" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>45602</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="4">
+        <v>27.900390000000002</v>
+      </c>
+      <c r="D44" s="4">
+        <v>-82.849379999999996</v>
+      </c>
+      <c r="E44" s="10">
+        <v>0</v>
+      </c>
+      <c r="F44" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>45602</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="3">
+        <v>27.955749999999998</v>
+      </c>
+      <c r="D45" s="3">
+        <v>-82.832970000000003</v>
+      </c>
+      <c r="E45" s="10">
+        <v>0</v>
+      </c>
+      <c r="F45" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>45602</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="5">
+        <v>27.977964</v>
+      </c>
+      <c r="D46" s="5">
+        <v>-82.832233000000002</v>
+      </c>
+      <c r="E46" s="10">
+        <v>2000</v>
+      </c>
+      <c r="F46" s="9">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>45602</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="3">
+        <v>28.153919999999999</v>
+      </c>
+      <c r="D47" s="3">
+        <v>-82.806610000000006</v>
+      </c>
+      <c r="E47" s="10">
+        <v>0</v>
+      </c>
+      <c r="F47" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="6">
+        <v>45604</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="5">
+        <v>27.61336</v>
+      </c>
+      <c r="D48" s="5">
+        <v>-82.737459999999999</v>
+      </c>
+      <c r="E48" s="10">
+        <v>14000</v>
+      </c>
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="6">
+        <v>45604</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" s="5">
+        <v>27.616150000000001</v>
+      </c>
+      <c r="D49" s="5">
+        <v>-82.726280000000003</v>
+      </c>
+      <c r="E49" s="10">
+        <v>0</v>
+      </c>
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="6">
+        <v>45604</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="5">
+        <v>27.698</v>
+      </c>
+      <c r="D50" s="5">
+        <v>-82.738523000000001</v>
+      </c>
+      <c r="E50" s="10">
+        <v>2000</v>
+      </c>
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="6">
+        <v>45604</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="5">
+        <v>27.742989999999999</v>
+      </c>
+      <c r="D51" s="5">
+        <v>-82.759140000000002</v>
+      </c>
+      <c r="E51" s="10">
+        <v>1000</v>
+      </c>
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="6">
+        <v>45604</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="5">
+        <v>27.801079999999999</v>
+      </c>
+      <c r="D52" s="5">
+        <v>-82.803179999999998</v>
+      </c>
+      <c r="E52" s="10">
+        <v>3000</v>
+      </c>
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="6">
+        <v>45604</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="4">
+        <v>27.832253999999999</v>
+      </c>
+      <c r="D53" s="4">
+        <v>-82.835544999999996</v>
+      </c>
+      <c r="E53" s="10">
+        <v>1000</v>
+      </c>
+      <c r="F53" s="2"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="6">
+        <v>45604</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="4">
+        <v>27.900390000000002</v>
+      </c>
+      <c r="D54" s="4">
+        <v>-82.849379999999996</v>
+      </c>
+      <c r="E54" s="10">
+        <v>0</v>
+      </c>
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="6">
+        <v>45604</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" s="4">
+        <v>27.955749999999998</v>
+      </c>
+      <c r="D55" s="4">
+        <v>-82.832970000000003</v>
+      </c>
+      <c r="E55" s="10">
+        <v>0</v>
+      </c>
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="6">
+        <v>45604</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" s="5">
+        <v>27.977964</v>
+      </c>
+      <c r="D56" s="5">
+        <v>-82.832233000000002</v>
+      </c>
+      <c r="E56" s="10">
+        <v>1000</v>
+      </c>
+      <c r="F56" s="2"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="6">
+        <v>45604</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" s="5">
+        <v>28.056318000000001</v>
+      </c>
+      <c r="D57" s="5">
+        <v>-82.824160000000006</v>
+      </c>
+      <c r="E57" s="10">
+        <v>0</v>
+      </c>
+      <c r="F57" s="2"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="6">
+        <v>45604</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" s="4">
+        <v>28.153919999999999</v>
+      </c>
+      <c r="D58" s="4">
+        <v>-82.806610000000006</v>
+      </c>
+      <c r="E58" s="10">
+        <v>0</v>
+      </c>
+      <c r="F58" s="2"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>45608</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59">
+        <v>27.876546829700001</v>
+      </c>
+      <c r="D59">
+        <v>-82.583779218900006</v>
+      </c>
+      <c r="F59" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>45608</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C60">
+        <v>27.849005988399998</v>
+      </c>
+      <c r="D60">
+        <v>-82.618127360499997</v>
+      </c>
+      <c r="F60" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="6">
+        <v>45609</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" s="5">
+        <v>27.61336</v>
+      </c>
+      <c r="D61" s="5">
+        <v>-82.737459999999999</v>
+      </c>
+      <c r="E61" s="12">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="6">
+        <v>45609</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" s="5">
+        <v>27.616150000000001</v>
+      </c>
+      <c r="D62" s="5">
+        <v>-82.726280000000003</v>
+      </c>
+      <c r="E62" s="12">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="6">
+        <v>45609</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="5">
+        <v>27.698</v>
+      </c>
+      <c r="D63" s="5">
+        <v>-82.738523000000001</v>
+      </c>
+      <c r="E63" s="12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="6">
+        <v>45609</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" s="5">
+        <v>27.742989999999999</v>
+      </c>
+      <c r="D64" s="5">
+        <v>-82.759140000000002</v>
+      </c>
+      <c r="E64" s="12">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="6">
+        <v>45609</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="5">
+        <v>27.801079999999999</v>
+      </c>
+      <c r="D65" s="5">
+        <v>-82.803179999999998</v>
+      </c>
+      <c r="E65" s="12">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="6">
+        <v>45609</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" s="4">
+        <v>27.832253999999999</v>
+      </c>
+      <c r="D66" s="4">
+        <v>-82.835544999999996</v>
+      </c>
+      <c r="E66" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="6">
+        <v>45609</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="4">
+        <v>27.900390000000002</v>
+      </c>
+      <c r="D67" s="4">
+        <v>-82.849379999999996</v>
+      </c>
+      <c r="E67" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="6">
+        <v>45609</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" s="4">
+        <v>27.955749999999998</v>
+      </c>
+      <c r="D68" s="4">
+        <v>-82.832970000000003</v>
+      </c>
+      <c r="E68" s="12">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="6">
+        <v>45609</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" s="5">
+        <v>27.977964</v>
+      </c>
+      <c r="D69" s="5">
+        <v>-82.832233000000002</v>
+      </c>
+      <c r="E69" s="12">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="6">
+        <v>45609</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C70" s="5">
+        <v>28.056318000000001</v>
+      </c>
+      <c r="D70" s="5">
+        <v>-82.824160000000006</v>
+      </c>
+      <c r="E70" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="6">
+        <v>45609</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C71" s="4">
+        <v>28.153919999999999</v>
+      </c>
+      <c r="D71" s="4">
+        <v>-82.806610000000006</v>
+      </c>
+      <c r="E71" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E72" s="11"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E73" s="11"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E74" s="11"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E75" s="11"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E76" s="11"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E77" s="11"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E78" s="11"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E79" s="11"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E80" s="11"/>
+    </row>
+    <row r="81" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E81" s="11"/>
+    </row>
+    <row r="82" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E82" s="11"/>
+    </row>
+    <row r="83" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E83" s="11"/>
+    </row>
+    <row r="84" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E84" s="11"/>
+    </row>
+    <row r="85" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E85" s="11"/>
+    </row>
+    <row r="86" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E86" s="11"/>
+    </row>
+    <row r="87" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E87" s="11"/>
+    </row>
+    <row r="88" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E88" s="11"/>
+    </row>
+    <row r="89" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E89" s="11"/>
+    </row>
+    <row r="90" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E90" s="11"/>
+    </row>
+    <row r="91" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E91" s="11"/>
+    </row>
+    <row r="92" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E92" s="11"/>
+    </row>
+    <row r="93" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E93" s="11"/>
+    </row>
+    <row r="94" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E94" s="11"/>
+    </row>
+    <row r="95" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E95" s="11"/>
+    </row>
+    <row r="96" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E96" s="11"/>
+    </row>
+    <row r="97" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E97" s="11"/>
+    </row>
+    <row r="98" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E98" s="11"/>
+    </row>
+    <row r="99" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E99" s="11"/>
+    </row>
+    <row r="100" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E100" s="11"/>
+    </row>
+    <row r="101" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E101" s="11"/>
+    </row>
+    <row r="102" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E102" s="11"/>
+    </row>
+    <row r="103" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E103" s="11"/>
+    </row>
+    <row r="104" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E104" s="11"/>
+    </row>
+    <row r="105" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E105" s="11"/>
+    </row>
+    <row r="106" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E106" s="11"/>
+    </row>
+    <row r="107" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E107" s="11"/>
+    </row>
+    <row r="108" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E108" s="11"/>
+    </row>
+    <row r="109" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E109" s="11"/>
+    </row>
+    <row r="110" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E110" s="11"/>
+    </row>
+    <row r="111" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E111" s="11"/>
+    </row>
+    <row r="112" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E112" s="11"/>
+    </row>
+    <row r="113" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E113" s="11"/>
+    </row>
+    <row r="114" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E114" s="11"/>
+    </row>
+    <row r="115" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E115" s="11"/>
+    </row>
+    <row r="116" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E116" s="11"/>
+    </row>
+    <row r="117" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E117" s="11"/>
+    </row>
+    <row r="118" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E118" s="11"/>
+    </row>
+    <row r="119" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E119" s="11"/>
+    </row>
+    <row r="120" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E120" s="11"/>
+    </row>
+    <row r="121" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E121" s="11"/>
+    </row>
+    <row r="122" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E122" s="11"/>
+    </row>
+    <row r="123" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E123" s="11"/>
+    </row>
+    <row r="124" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E124" s="11"/>
+    </row>
+    <row r="125" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E125" s="11"/>
+    </row>
+    <row r="126" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E126" s="11"/>
+    </row>
+    <row r="127" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E127" s="11"/>
+    </row>
+    <row r="128" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E128" s="11"/>
+    </row>
+    <row r="129" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E129" s="11"/>
+    </row>
+    <row r="130" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E130" s="11"/>
+    </row>
+    <row r="131" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E131" s="11"/>
+    </row>
+    <row r="132" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E132" s="11"/>
+    </row>
+    <row r="133" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E133" s="11"/>
+    </row>
+    <row r="134" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E134" s="11"/>
+    </row>
+    <row r="135" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E135" s="11"/>
+    </row>
+    <row r="136" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E136" s="11"/>
+    </row>
+    <row r="137" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E137" s="11"/>
+    </row>
+    <row r="138" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E138" s="11"/>
+    </row>
+    <row r="139" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E139" s="11"/>
+    </row>
+    <row r="140" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E140" s="11"/>
+    </row>
+    <row r="141" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E141" s="11"/>
+    </row>
+    <row r="142" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E142" s="11"/>
+    </row>
+    <row r="143" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E143" s="11"/>
+    </row>
+    <row r="144" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E144" s="11"/>
+    </row>
+    <row r="145" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E145" s="11"/>
+    </row>
+    <row r="146" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E146" s="11"/>
+    </row>
+    <row r="147" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E147" s="11"/>
+    </row>
+    <row r="148" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E148" s="11"/>
+    </row>
+    <row r="149" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E149" s="11"/>
+    </row>
+    <row r="150" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E150" s="11"/>
+    </row>
+    <row r="151" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E151" s="11"/>
+    </row>
+    <row r="152" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E152" s="11"/>
+    </row>
+    <row r="153" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E153" s="11"/>
+    </row>
+    <row r="154" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E154" s="11"/>
+    </row>
+    <row r="155" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E155" s="11"/>
+    </row>
+    <row r="156" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E156" s="11"/>
+    </row>
+    <row r="157" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E157" s="11"/>
+    </row>
+    <row r="158" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E158" s="11"/>
+    </row>
+    <row r="159" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E159" s="11"/>
+    </row>
+    <row r="160" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E160" s="11"/>
+    </row>
+    <row r="161" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E161" s="11"/>
+    </row>
+    <row r="162" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E162" s="11"/>
+    </row>
+    <row r="163" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E163" s="11"/>
+    </row>
+    <row r="164" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E164" s="11"/>
+    </row>
+    <row r="165" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E165" s="11"/>
+    </row>
+    <row r="166" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E166" s="11"/>
+    </row>
+    <row r="167" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E167" s="11"/>
+    </row>
+    <row r="168" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E168" s="11"/>
+    </row>
+    <row r="169" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E169" s="11"/>
+    </row>
+    <row r="170" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E170" s="11"/>
+    </row>
+    <row r="171" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E171" s="11"/>
+    </row>
+    <row r="172" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E172" s="11"/>
+    </row>
+    <row r="173" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E173" s="11"/>
+    </row>
+    <row r="174" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E174" s="11"/>
+    </row>
+    <row r="175" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E175" s="11"/>
+    </row>
+    <row r="176" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E176" s="11"/>
+    </row>
+    <row r="177" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E177" s="11"/>
+    </row>
+    <row r="178" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E178" s="11"/>
+    </row>
+    <row r="179" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E179" s="11"/>
+    </row>
+    <row r="180" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E180" s="11"/>
+    </row>
+    <row r="181" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E181" s="11"/>
+    </row>
+    <row r="182" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E182" s="11"/>
+    </row>
+    <row r="183" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E183" s="11"/>
+    </row>
+    <row r="184" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E184" s="11"/>
+    </row>
+    <row r="185" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E185" s="11"/>
+    </row>
+    <row r="186" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E186" s="11"/>
+    </row>
+    <row r="187" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E187" s="11"/>
+    </row>
+    <row r="188" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E188" s="11"/>
+    </row>
+    <row r="189" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E189" s="11"/>
+    </row>
+    <row r="190" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E190" s="11"/>
+    </row>
+    <row r="191" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E191" s="11"/>
+    </row>
+    <row r="192" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E192" s="11"/>
+    </row>
+    <row r="193" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E193" s="11"/>
+    </row>
+    <row r="194" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E194" s="11"/>
+    </row>
+    <row r="195" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E195" s="11"/>
+    </row>
+    <row r="196" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E196" s="11"/>
+    </row>
+    <row r="197" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E197" s="11"/>
+    </row>
+    <row r="198" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E198" s="11"/>
+    </row>
+    <row r="199" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E199" s="11"/>
+    </row>
+    <row r="200" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E200" s="11"/>
+    </row>
+    <row r="201" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E201" s="11"/>
+    </row>
+    <row r="202" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E202" s="11"/>
+    </row>
+    <row r="203" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E203" s="11"/>
+    </row>
+    <row r="204" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E204" s="11"/>
+    </row>
+    <row r="205" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E205" s="11"/>
+    </row>
+    <row r="206" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E206" s="11"/>
+    </row>
+    <row r="207" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E207" s="11"/>
+    </row>
+    <row r="208" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E208" s="11"/>
+    </row>
+    <row r="209" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E209" s="11"/>
+    </row>
+    <row r="210" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E210" s="11"/>
+    </row>
+    <row r="211" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E211" s="11"/>
+    </row>
+    <row r="212" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E212" s="11"/>
+    </row>
+    <row r="213" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E213" s="11"/>
+    </row>
+    <row r="214" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E214" s="11"/>
+    </row>
+    <row r="215" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E215" s="11"/>
+    </row>
+    <row r="216" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E216" s="11"/>
+    </row>
+    <row r="217" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E217" s="11"/>
+    </row>
+    <row r="218" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E218" s="11"/>
+    </row>
+    <row r="219" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E219" s="11"/>
+    </row>
+    <row r="220" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E220" s="11"/>
+    </row>
+    <row r="221" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E221" s="11"/>
+    </row>
+    <row r="222" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E222" s="11"/>
+    </row>
+    <row r="223" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E223" s="11"/>
+    </row>
+    <row r="224" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E224" s="11"/>
+    </row>
+    <row r="225" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E225" s="11"/>
+    </row>
+    <row r="226" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E226" s="11"/>
+    </row>
+    <row r="227" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E227" s="11"/>
+    </row>
+    <row r="228" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E228" s="11"/>
+    </row>
+    <row r="229" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E229" s="11"/>
+    </row>
+    <row r="230" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E230" s="11"/>
+    </row>
+    <row r="231" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E231" s="11"/>
+    </row>
+    <row r="232" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E232" s="11"/>
+    </row>
+    <row r="233" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E233" s="11"/>
+    </row>
+    <row r="234" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E234" s="11"/>
+    </row>
+    <row r="235" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E235" s="11"/>
+    </row>
+    <row r="236" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E236" s="11"/>
+    </row>
+    <row r="237" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E237" s="11"/>
+    </row>
+    <row r="238" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E238" s="11"/>
+    </row>
+    <row r="239" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E239" s="11"/>
+    </row>
+    <row r="240" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E240" s="11"/>
+    </row>
+    <row r="241" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E241" s="11"/>
+    </row>
+    <row r="242" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E242" s="11"/>
+    </row>
+    <row r="243" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E243" s="11"/>
+    </row>
+    <row r="244" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E244" s="11"/>
+    </row>
+    <row r="245" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E245" s="11"/>
+    </row>
+    <row r="246" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E246" s="11"/>
+    </row>
+    <row r="247" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E247" s="11"/>
+    </row>
+    <row r="248" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E248" s="11"/>
+    </row>
+    <row r="249" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E249" s="11"/>
+    </row>
+    <row r="250" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E250" s="11"/>
+    </row>
+    <row r="251" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E251" s="11"/>
+    </row>
+    <row r="252" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E252" s="11"/>
+    </row>
+    <row r="253" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E253" s="11"/>
+    </row>
+    <row r="254" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E254" s="11"/>
+    </row>
+    <row r="255" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E255" s="11"/>
+    </row>
+    <row r="256" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E256" s="11"/>
+    </row>
+    <row r="257" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E257" s="11"/>
+    </row>
+    <row r="258" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E258" s="11"/>
+    </row>
+    <row r="259" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E259" s="11"/>
+    </row>
+    <row r="260" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E260" s="11"/>
+    </row>
+    <row r="261" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E261" s="11"/>
+    </row>
+    <row r="262" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E262" s="11"/>
+    </row>
+    <row r="263" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E263" s="11"/>
+    </row>
+    <row r="264" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E264" s="11"/>
+    </row>
+    <row r="265" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E265" s="11"/>
+    </row>
+    <row r="266" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E266" s="11"/>
+    </row>
+    <row r="267" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E267" s="11"/>
+    </row>
+    <row r="268" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E268" s="11"/>
+    </row>
+    <row r="269" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E269" s="11"/>
+    </row>
+    <row r="270" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E270" s="11"/>
+    </row>
+    <row r="271" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E271" s="11"/>
+    </row>
+    <row r="272" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E272" s="11"/>
+    </row>
+    <row r="273" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E273" s="11"/>
+    </row>
+    <row r="274" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E274" s="11"/>
+    </row>
+    <row r="275" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E275" s="11"/>
+    </row>
+    <row r="276" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E276" s="11"/>
+    </row>
+    <row r="277" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E277" s="11"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/Pinellas_RedTide_Entero.xlsx
+++ b/Data/Pinellas_RedTide_Entero.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Watershed\MONITORING\AMBIENT\Analysis\R\Rchive\water_quality_dashboard\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F4A140-F286-488E-8D2D-0A2E3CA86430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C78583-5C0F-4498-9B07-B6B624D568D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{A3C8BE64-6FAF-4B04-9CDF-43C9CA65836E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A3C8BE64-6FAF-4B04-9CDF-43C9CA65836E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -144,7 +144,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -178,6 +178,8 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -495,21 +497,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72952526-ADD9-47FB-9AF2-808D0D3071F7}">
   <dimension ref="A1:F277"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -529,7 +531,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45581</v>
       </c>
@@ -549,7 +551,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45581</v>
       </c>
@@ -569,7 +571,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45581</v>
       </c>
@@ -589,7 +591,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45581</v>
       </c>
@@ -609,7 +611,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45581</v>
       </c>
@@ -629,7 +631,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45581</v>
       </c>
@@ -649,7 +651,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45581</v>
       </c>
@@ -669,7 +671,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45581</v>
       </c>
@@ -689,7 +691,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45581</v>
       </c>
@@ -709,7 +711,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45581</v>
       </c>
@@ -729,7 +731,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>45595</v>
       </c>
@@ -749,7 +751,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>45595</v>
       </c>
@@ -769,7 +771,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>45595</v>
       </c>
@@ -789,7 +791,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>45595</v>
       </c>
@@ -809,7 +811,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>45595</v>
       </c>
@@ -829,7 +831,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>45595</v>
       </c>
@@ -849,7 +851,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>45595</v>
       </c>
@@ -869,7 +871,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>45595</v>
       </c>
@@ -889,7 +891,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>45595</v>
       </c>
@@ -909,7 +911,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>45595</v>
       </c>
@@ -929,7 +931,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>45595</v>
       </c>
@@ -949,7 +951,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>45597</v>
       </c>
@@ -966,7 +968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>45597</v>
       </c>
@@ -983,7 +985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>45597</v>
       </c>
@@ -1000,7 +1002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>45597</v>
       </c>
@@ -1017,7 +1019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>45597</v>
       </c>
@@ -1034,7 +1036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>45597</v>
       </c>
@@ -1051,7 +1053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>45597</v>
       </c>
@@ -1068,7 +1070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>45600</v>
       </c>
@@ -1085,7 +1087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>45600</v>
       </c>
@@ -1102,7 +1104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>45600</v>
       </c>
@@ -1119,7 +1121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>45600</v>
       </c>
@@ -1136,7 +1138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>45600</v>
       </c>
@@ -1153,7 +1155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>45600</v>
       </c>
@@ -1170,7 +1172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>45600</v>
       </c>
@@ -1187,7 +1189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>45600</v>
       </c>
@@ -1207,7 +1209,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>45602</v>
       </c>
@@ -1227,7 +1229,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>45602</v>
       </c>
@@ -1247,7 +1249,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>45602</v>
       </c>
@@ -1267,7 +1269,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>45602</v>
       </c>
@@ -1287,7 +1289,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>45602</v>
       </c>
@@ -1307,7 +1309,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>45602</v>
       </c>
@@ -1327,7 +1329,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>45602</v>
       </c>
@@ -1347,7 +1349,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>45602</v>
       </c>
@@ -1367,7 +1369,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45602</v>
       </c>
@@ -1387,7 +1389,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45602</v>
       </c>
@@ -1407,7 +1409,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>45604</v>
       </c>
@@ -1425,7 +1427,7 @@
       </c>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>45604</v>
       </c>
@@ -1443,7 +1445,7 @@
       </c>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>45604</v>
       </c>
@@ -1461,7 +1463,7 @@
       </c>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>45604</v>
       </c>
@@ -1479,7 +1481,7 @@
       </c>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>45604</v>
       </c>
@@ -1497,7 +1499,7 @@
       </c>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>45604</v>
       </c>
@@ -1515,7 +1517,7 @@
       </c>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>45604</v>
       </c>
@@ -1533,7 +1535,7 @@
       </c>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>45604</v>
       </c>
@@ -1551,7 +1553,7 @@
       </c>
       <c r="F55" s="2"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>45604</v>
       </c>
@@ -1569,7 +1571,7 @@
       </c>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>45604</v>
       </c>
@@ -1587,7 +1589,7 @@
       </c>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>45604</v>
       </c>
@@ -1605,7 +1607,7 @@
       </c>
       <c r="F58" s="2"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>45608</v>
       </c>
@@ -1618,11 +1620,11 @@
       <c r="D59">
         <v>-82.583779218900006</v>
       </c>
-      <c r="F59" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F59" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>45608</v>
       </c>
@@ -1635,11 +1637,11 @@
       <c r="D60">
         <v>-82.618127360499997</v>
       </c>
-      <c r="F60" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F60" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
         <v>45609</v>
       </c>
@@ -1655,8 +1657,11 @@
       <c r="E61" s="12">
         <v>20000</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F61" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>45609</v>
       </c>
@@ -1672,8 +1677,11 @@
       <c r="E62" s="12">
         <v>7000</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F62" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <v>45609</v>
       </c>
@@ -1689,8 +1697,11 @@
       <c r="E63" s="12">
         <v>1000</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F63" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <v>45609</v>
       </c>
@@ -1706,8 +1717,11 @@
       <c r="E64" s="12">
         <v>5000</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F64" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>45609</v>
       </c>
@@ -1723,8 +1737,11 @@
       <c r="E65" s="12">
         <v>31000</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F65" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <v>45609</v>
       </c>
@@ -1740,8 +1757,11 @@
       <c r="E66" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F66" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <v>45609</v>
       </c>
@@ -1757,8 +1777,11 @@
       <c r="E67" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F67" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <v>45609</v>
       </c>
@@ -1774,8 +1797,11 @@
       <c r="E68" s="12">
         <v>13000</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F68" s="14">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
         <v>45609</v>
       </c>
@@ -1791,8 +1817,11 @@
       <c r="E69" s="12">
         <v>3000</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F69" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <v>45609</v>
       </c>
@@ -1808,8 +1837,11 @@
       <c r="E70" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F70" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>45609</v>
       </c>
@@ -1825,623 +1857,626 @@
       <c r="E71" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F71" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E72" s="11"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E73" s="11"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E74" s="11"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E75" s="11"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E76" s="11"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E77" s="11"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E78" s="11"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E79" s="11"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E80" s="11"/>
     </row>
-    <row r="81" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E81" s="11"/>
     </row>
-    <row r="82" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E82" s="11"/>
     </row>
-    <row r="83" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E83" s="11"/>
     </row>
-    <row r="84" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E84" s="11"/>
     </row>
-    <row r="85" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E85" s="11"/>
     </row>
-    <row r="86" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E86" s="11"/>
     </row>
-    <row r="87" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E87" s="11"/>
     </row>
-    <row r="88" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E88" s="11"/>
     </row>
-    <row r="89" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E89" s="11"/>
     </row>
-    <row r="90" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E90" s="11"/>
     </row>
-    <row r="91" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E91" s="11"/>
     </row>
-    <row r="92" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E92" s="11"/>
     </row>
-    <row r="93" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E93" s="11"/>
     </row>
-    <row r="94" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E94" s="11"/>
     </row>
-    <row r="95" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E95" s="11"/>
     </row>
-    <row r="96" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E96" s="11"/>
     </row>
-    <row r="97" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E97" s="11"/>
     </row>
-    <row r="98" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E98" s="11"/>
     </row>
-    <row r="99" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E99" s="11"/>
     </row>
-    <row r="100" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E100" s="11"/>
     </row>
-    <row r="101" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E101" s="11"/>
     </row>
-    <row r="102" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E102" s="11"/>
     </row>
-    <row r="103" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E103" s="11"/>
     </row>
-    <row r="104" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E104" s="11"/>
     </row>
-    <row r="105" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E105" s="11"/>
     </row>
-    <row r="106" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E106" s="11"/>
     </row>
-    <row r="107" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E107" s="11"/>
     </row>
-    <row r="108" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E108" s="11"/>
     </row>
-    <row r="109" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E109" s="11"/>
     </row>
-    <row r="110" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E110" s="11"/>
     </row>
-    <row r="111" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E111" s="11"/>
     </row>
-    <row r="112" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E112" s="11"/>
     </row>
-    <row r="113" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E113" s="11"/>
     </row>
-    <row r="114" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E114" s="11"/>
     </row>
-    <row r="115" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E115" s="11"/>
     </row>
-    <row r="116" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E116" s="11"/>
     </row>
-    <row r="117" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E117" s="11"/>
     </row>
-    <row r="118" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E118" s="11"/>
     </row>
-    <row r="119" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E119" s="11"/>
     </row>
-    <row r="120" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E120" s="11"/>
     </row>
-    <row r="121" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E121" s="11"/>
     </row>
-    <row r="122" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E122" s="11"/>
     </row>
-    <row r="123" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E123" s="11"/>
     </row>
-    <row r="124" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E124" s="11"/>
     </row>
-    <row r="125" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E125" s="11"/>
     </row>
-    <row r="126" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E126" s="11"/>
     </row>
-    <row r="127" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E127" s="11"/>
     </row>
-    <row r="128" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E128" s="11"/>
     </row>
-    <row r="129" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E129" s="11"/>
     </row>
-    <row r="130" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E130" s="11"/>
     </row>
-    <row r="131" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E131" s="11"/>
     </row>
-    <row r="132" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E132" s="11"/>
     </row>
-    <row r="133" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E133" s="11"/>
     </row>
-    <row r="134" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E134" s="11"/>
     </row>
-    <row r="135" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E135" s="11"/>
     </row>
-    <row r="136" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E136" s="11"/>
     </row>
-    <row r="137" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E137" s="11"/>
     </row>
-    <row r="138" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E138" s="11"/>
     </row>
-    <row r="139" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E139" s="11"/>
     </row>
-    <row r="140" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E140" s="11"/>
     </row>
-    <row r="141" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E141" s="11"/>
     </row>
-    <row r="142" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E142" s="11"/>
     </row>
-    <row r="143" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E143" s="11"/>
     </row>
-    <row r="144" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E144" s="11"/>
     </row>
-    <row r="145" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E145" s="11"/>
     </row>
-    <row r="146" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E146" s="11"/>
     </row>
-    <row r="147" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E147" s="11"/>
     </row>
-    <row r="148" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E148" s="11"/>
     </row>
-    <row r="149" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E149" s="11"/>
     </row>
-    <row r="150" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E150" s="11"/>
     </row>
-    <row r="151" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E151" s="11"/>
     </row>
-    <row r="152" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E152" s="11"/>
     </row>
-    <row r="153" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E153" s="11"/>
     </row>
-    <row r="154" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E154" s="11"/>
     </row>
-    <row r="155" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E155" s="11"/>
     </row>
-    <row r="156" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E156" s="11"/>
     </row>
-    <row r="157" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E157" s="11"/>
     </row>
-    <row r="158" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E158" s="11"/>
     </row>
-    <row r="159" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E159" s="11"/>
     </row>
-    <row r="160" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E160" s="11"/>
     </row>
-    <row r="161" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E161" s="11"/>
     </row>
-    <row r="162" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E162" s="11"/>
     </row>
-    <row r="163" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E163" s="11"/>
     </row>
-    <row r="164" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E164" s="11"/>
     </row>
-    <row r="165" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E165" s="11"/>
     </row>
-    <row r="166" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E166" s="11"/>
     </row>
-    <row r="167" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E167" s="11"/>
     </row>
-    <row r="168" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E168" s="11"/>
     </row>
-    <row r="169" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E169" s="11"/>
     </row>
-    <row r="170" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E170" s="11"/>
     </row>
-    <row r="171" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E171" s="11"/>
     </row>
-    <row r="172" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E172" s="11"/>
     </row>
-    <row r="173" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E173" s="11"/>
     </row>
-    <row r="174" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E174" s="11"/>
     </row>
-    <row r="175" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E175" s="11"/>
     </row>
-    <row r="176" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E176" s="11"/>
     </row>
-    <row r="177" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E177" s="11"/>
     </row>
-    <row r="178" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E178" s="11"/>
     </row>
-    <row r="179" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E179" s="11"/>
     </row>
-    <row r="180" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E180" s="11"/>
     </row>
-    <row r="181" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E181" s="11"/>
     </row>
-    <row r="182" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E182" s="11"/>
     </row>
-    <row r="183" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E183" s="11"/>
     </row>
-    <row r="184" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E184" s="11"/>
     </row>
-    <row r="185" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E185" s="11"/>
     </row>
-    <row r="186" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E186" s="11"/>
     </row>
-    <row r="187" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E187" s="11"/>
     </row>
-    <row r="188" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E188" s="11"/>
     </row>
-    <row r="189" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E189" s="11"/>
     </row>
-    <row r="190" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E190" s="11"/>
     </row>
-    <row r="191" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E191" s="11"/>
     </row>
-    <row r="192" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E192" s="11"/>
     </row>
-    <row r="193" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E193" s="11"/>
     </row>
-    <row r="194" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E194" s="11"/>
     </row>
-    <row r="195" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E195" s="11"/>
     </row>
-    <row r="196" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E196" s="11"/>
     </row>
-    <row r="197" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E197" s="11"/>
     </row>
-    <row r="198" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E198" s="11"/>
     </row>
-    <row r="199" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E199" s="11"/>
     </row>
-    <row r="200" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E200" s="11"/>
     </row>
-    <row r="201" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E201" s="11"/>
     </row>
-    <row r="202" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E202" s="11"/>
     </row>
-    <row r="203" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E203" s="11"/>
     </row>
-    <row r="204" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E204" s="11"/>
     </row>
-    <row r="205" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E205" s="11"/>
     </row>
-    <row r="206" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E206" s="11"/>
     </row>
-    <row r="207" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E207" s="11"/>
     </row>
-    <row r="208" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E208" s="11"/>
     </row>
-    <row r="209" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E209" s="11"/>
     </row>
-    <row r="210" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E210" s="11"/>
     </row>
-    <row r="211" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E211" s="11"/>
     </row>
-    <row r="212" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E212" s="11"/>
     </row>
-    <row r="213" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E213" s="11"/>
     </row>
-    <row r="214" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E214" s="11"/>
     </row>
-    <row r="215" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E215" s="11"/>
     </row>
-    <row r="216" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E216" s="11"/>
     </row>
-    <row r="217" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E217" s="11"/>
     </row>
-    <row r="218" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E218" s="11"/>
     </row>
-    <row r="219" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E219" s="11"/>
     </row>
-    <row r="220" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E220" s="11"/>
     </row>
-    <row r="221" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E221" s="11"/>
     </row>
-    <row r="222" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E222" s="11"/>
     </row>
-    <row r="223" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E223" s="11"/>
     </row>
-    <row r="224" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E224" s="11"/>
     </row>
-    <row r="225" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E225" s="11"/>
     </row>
-    <row r="226" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E226" s="11"/>
     </row>
-    <row r="227" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E227" s="11"/>
     </row>
-    <row r="228" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E228" s="11"/>
     </row>
-    <row r="229" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E229" s="11"/>
     </row>
-    <row r="230" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E230" s="11"/>
     </row>
-    <row r="231" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E231" s="11"/>
     </row>
-    <row r="232" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E232" s="11"/>
     </row>
-    <row r="233" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E233" s="11"/>
     </row>
-    <row r="234" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E234" s="11"/>
     </row>
-    <row r="235" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E235" s="11"/>
     </row>
-    <row r="236" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E236" s="11"/>
     </row>
-    <row r="237" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E237" s="11"/>
     </row>
-    <row r="238" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E238" s="11"/>
     </row>
-    <row r="239" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E239" s="11"/>
     </row>
-    <row r="240" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E240" s="11"/>
     </row>
-    <row r="241" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E241" s="11"/>
     </row>
-    <row r="242" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E242" s="11"/>
     </row>
-    <row r="243" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E243" s="11"/>
     </row>
-    <row r="244" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E244" s="11"/>
     </row>
-    <row r="245" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E245" s="11"/>
     </row>
-    <row r="246" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E246" s="11"/>
     </row>
-    <row r="247" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E247" s="11"/>
     </row>
-    <row r="248" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E248" s="11"/>
     </row>
-    <row r="249" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E249" s="11"/>
     </row>
-    <row r="250" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="250" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E250" s="11"/>
     </row>
-    <row r="251" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E251" s="11"/>
     </row>
-    <row r="252" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="252" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E252" s="11"/>
     </row>
-    <row r="253" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="253" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E253" s="11"/>
     </row>
-    <row r="254" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="254" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E254" s="11"/>
     </row>
-    <row r="255" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="255" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E255" s="11"/>
     </row>
-    <row r="256" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E256" s="11"/>
     </row>
-    <row r="257" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="257" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E257" s="11"/>
     </row>
-    <row r="258" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="258" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E258" s="11"/>
     </row>
-    <row r="259" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="259" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E259" s="11"/>
     </row>
-    <row r="260" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="260" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E260" s="11"/>
     </row>
-    <row r="261" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="261" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E261" s="11"/>
     </row>
-    <row r="262" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="262" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E262" s="11"/>
     </row>
-    <row r="263" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="263" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E263" s="11"/>
     </row>
-    <row r="264" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="264" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E264" s="11"/>
     </row>
-    <row r="265" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="265" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E265" s="11"/>
     </row>
-    <row r="266" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="266" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E266" s="11"/>
     </row>
-    <row r="267" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="267" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E267" s="11"/>
     </row>
-    <row r="268" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="268" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E268" s="11"/>
     </row>
-    <row r="269" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="269" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E269" s="11"/>
     </row>
-    <row r="270" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="270" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E270" s="11"/>
     </row>
-    <row r="271" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="271" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E271" s="11"/>
     </row>
-    <row r="272" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="272" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E272" s="11"/>
     </row>
-    <row r="273" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="273" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E273" s="11"/>
     </row>
-    <row r="274" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="274" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E274" s="11"/>
     </row>
-    <row r="275" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="275" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E275" s="11"/>
     </row>
-    <row r="276" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="276" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E276" s="11"/>
     </row>
-    <row r="277" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="277" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E277" s="11"/>
     </row>
   </sheetData>

--- a/Data/Pinellas_RedTide_Entero.xlsx
+++ b/Data/Pinellas_RedTide_Entero.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Watershed\MONITORING\AMBIENT\Analysis\R\Rchive\water_quality_dashboard\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\bcc.pinellascounty-fl.gov\pcg\PWmain\S_Drive\Divisions\WMS\Watershed\MONITORING\AMBIENT\Analysis\R\Rchive\water_quality_dashboard\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C78583-5C0F-4498-9B07-B6B624D568D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F692127-7781-4C66-9531-DA7DF5F78FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A3C8BE64-6FAF-4B04-9CDF-43C9CA65836E}"/>
+    <workbookView xWindow="36000" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{A3C8BE64-6FAF-4B04-9CDF-43C9CA65836E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="23">
   <si>
     <t>Site</t>
   </si>
@@ -97,15 +97,23 @@
   <si>
     <t>Riviera Bay</t>
   </si>
+  <si>
+    <t>Fred Howard</t>
+  </si>
+  <si>
+    <t>Ft. DeSoto Bay Pier</t>
+  </si>
+  <si>
+    <t>Ft. DeSoto Gulf Pier</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.00000"/>
-    <numFmt numFmtId="165" formatCode="0_);\(0\)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -144,7 +152,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -175,11 +183,18 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -495,10 +510,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72952526-ADD9-47FB-9AF2-808D0D3071F7}">
-  <dimension ref="A1:F277"/>
+  <dimension ref="A1:F273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F74" sqref="F74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A236" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J246" sqref="J246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,7 +524,7 @@
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -527,7 +543,7 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1425,7 +1441,6 @@
       <c r="E48" s="10">
         <v>14000</v>
       </c>
-      <c r="F48" s="2"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
@@ -1443,7 +1458,6 @@
       <c r="E49" s="10">
         <v>0</v>
       </c>
-      <c r="F49" s="2"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
@@ -1461,7 +1475,6 @@
       <c r="E50" s="10">
         <v>2000</v>
       </c>
-      <c r="F50" s="2"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
@@ -1479,7 +1492,6 @@
       <c r="E51" s="10">
         <v>1000</v>
       </c>
-      <c r="F51" s="2"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
@@ -1497,7 +1509,6 @@
       <c r="E52" s="10">
         <v>3000</v>
       </c>
-      <c r="F52" s="2"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
@@ -1515,7 +1526,6 @@
       <c r="E53" s="10">
         <v>1000</v>
       </c>
-      <c r="F53" s="2"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
@@ -1533,7 +1543,6 @@
       <c r="E54" s="10">
         <v>0</v>
       </c>
-      <c r="F54" s="2"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
@@ -1551,7 +1560,6 @@
       <c r="E55" s="10">
         <v>0</v>
       </c>
-      <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
@@ -1569,7 +1577,6 @@
       <c r="E56" s="10">
         <v>1000</v>
       </c>
-      <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
@@ -1587,7 +1594,6 @@
       <c r="E57" s="10">
         <v>0</v>
       </c>
-      <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
@@ -1605,7 +1611,6 @@
       <c r="E58" s="10">
         <v>0</v>
       </c>
-      <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
@@ -1620,7 +1625,8 @@
       <c r="D59">
         <v>-82.583779218900006</v>
       </c>
-      <c r="F59" s="13">
+      <c r="E59" s="10"/>
+      <c r="F59" s="10">
         <v>10</v>
       </c>
     </row>
@@ -1637,7 +1643,8 @@
       <c r="D60">
         <v>-82.618127360499997</v>
       </c>
-      <c r="F60" s="13">
+      <c r="E60" s="10"/>
+      <c r="F60" s="10">
         <v>10</v>
       </c>
     </row>
@@ -1657,7 +1664,7 @@
       <c r="E61" s="12">
         <v>20000</v>
       </c>
-      <c r="F61" s="13">
+      <c r="F61" s="10">
         <v>10</v>
       </c>
     </row>
@@ -1677,7 +1684,7 @@
       <c r="E62" s="12">
         <v>7000</v>
       </c>
-      <c r="F62" s="13">
+      <c r="F62" s="10">
         <v>10</v>
       </c>
     </row>
@@ -1697,7 +1704,7 @@
       <c r="E63" s="12">
         <v>1000</v>
       </c>
-      <c r="F63" s="13">
+      <c r="F63" s="10">
         <v>10</v>
       </c>
     </row>
@@ -1717,7 +1724,7 @@
       <c r="E64" s="12">
         <v>5000</v>
       </c>
-      <c r="F64" s="13">
+      <c r="F64" s="10">
         <v>10</v>
       </c>
     </row>
@@ -1737,7 +1744,7 @@
       <c r="E65" s="12">
         <v>31000</v>
       </c>
-      <c r="F65" s="13">
+      <c r="F65" s="10">
         <v>10</v>
       </c>
     </row>
@@ -1757,7 +1764,7 @@
       <c r="E66" s="12">
         <v>0</v>
       </c>
-      <c r="F66" s="13">
+      <c r="F66" s="10">
         <v>10</v>
       </c>
     </row>
@@ -1777,7 +1784,7 @@
       <c r="E67" s="12">
         <v>0</v>
       </c>
-      <c r="F67" s="14">
+      <c r="F67" s="2">
         <v>10</v>
       </c>
     </row>
@@ -1797,7 +1804,7 @@
       <c r="E68" s="12">
         <v>13000</v>
       </c>
-      <c r="F68" s="14">
+      <c r="F68" s="2">
         <v>31</v>
       </c>
     </row>
@@ -1817,7 +1824,7 @@
       <c r="E69" s="12">
         <v>3000</v>
       </c>
-      <c r="F69" s="14">
+      <c r="F69" s="2">
         <v>10</v>
       </c>
     </row>
@@ -1837,7 +1844,7 @@
       <c r="E70" s="12">
         <v>0</v>
       </c>
-      <c r="F70" s="14">
+      <c r="F70" s="2">
         <v>10</v>
       </c>
     </row>
@@ -1857,563 +1864,3271 @@
       <c r="E71" s="12">
         <v>0</v>
       </c>
-      <c r="F71" s="14">
+      <c r="F71" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E72" s="11"/>
+      <c r="A72" s="6">
+        <v>45611</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" s="5">
+        <v>27.61336</v>
+      </c>
+      <c r="D72" s="5">
+        <v>-82.737459999999999</v>
+      </c>
+      <c r="E72" s="12">
+        <v>12000</v>
+      </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E73" s="11"/>
+      <c r="A73" s="6">
+        <v>45611</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C73" s="5">
+        <v>27.616150000000001</v>
+      </c>
+      <c r="D73" s="5">
+        <v>-82.726280000000003</v>
+      </c>
+      <c r="E73" s="12">
+        <v>2000</v>
+      </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E74" s="11"/>
+      <c r="A74" s="6">
+        <v>45611</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" s="5">
+        <v>27.698</v>
+      </c>
+      <c r="D74" s="5">
+        <v>-82.738523000000001</v>
+      </c>
+      <c r="E74" s="12">
+        <v>14000</v>
+      </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E75" s="11"/>
+      <c r="A75" s="6">
+        <v>45611</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" s="5">
+        <v>27.742989999999999</v>
+      </c>
+      <c r="D75" s="5">
+        <v>-82.759140000000002</v>
+      </c>
+      <c r="E75" s="12">
+        <v>61000</v>
+      </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E76" s="11"/>
+      <c r="A76" s="6">
+        <v>45611</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="5">
+        <v>27.801079999999999</v>
+      </c>
+      <c r="D76" s="5">
+        <v>-82.803179999999998</v>
+      </c>
+      <c r="E76" s="12">
+        <v>122000</v>
+      </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E77" s="11"/>
+      <c r="A77" s="6">
+        <v>45611</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" s="4">
+        <v>27.832253999999999</v>
+      </c>
+      <c r="D77" s="4">
+        <v>-82.835544999999996</v>
+      </c>
+      <c r="E77" s="12">
+        <v>48000</v>
+      </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E78" s="11"/>
+      <c r="A78" s="6">
+        <v>45611</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78" s="4">
+        <v>27.900390000000002</v>
+      </c>
+      <c r="D78" s="4">
+        <v>-82.849379999999996</v>
+      </c>
+      <c r="E78" s="10">
+        <v>2000</v>
+      </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E79" s="11"/>
+      <c r="A79" s="6">
+        <v>45611</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C79" s="4">
+        <v>27.955749999999998</v>
+      </c>
+      <c r="D79" s="4">
+        <v>-82.832970000000003</v>
+      </c>
+      <c r="E79" s="10">
+        <v>4000</v>
+      </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E80" s="11"/>
-    </row>
-    <row r="81" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E81" s="11"/>
-    </row>
-    <row r="82" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E82" s="11"/>
-    </row>
-    <row r="83" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E83" s="11"/>
-    </row>
-    <row r="84" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E84" s="11"/>
-    </row>
-    <row r="85" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E85" s="11"/>
-    </row>
-    <row r="86" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E86" s="11"/>
-    </row>
-    <row r="87" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E87" s="11"/>
-    </row>
-    <row r="88" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E88" s="11"/>
-    </row>
-    <row r="89" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E89" s="11"/>
-    </row>
-    <row r="90" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E90" s="11"/>
-    </row>
-    <row r="91" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E91" s="11"/>
-    </row>
-    <row r="92" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E92" s="11"/>
-    </row>
-    <row r="93" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E93" s="11"/>
-    </row>
-    <row r="94" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E94" s="11"/>
-    </row>
-    <row r="95" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E95" s="11"/>
-    </row>
-    <row r="96" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E96" s="11"/>
-    </row>
-    <row r="97" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E97" s="11"/>
-    </row>
-    <row r="98" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E98" s="11"/>
-    </row>
-    <row r="99" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E99" s="11"/>
-    </row>
-    <row r="100" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E100" s="11"/>
-    </row>
-    <row r="101" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E101" s="11"/>
-    </row>
-    <row r="102" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E102" s="11"/>
-    </row>
-    <row r="103" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E103" s="11"/>
-    </row>
-    <row r="104" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E104" s="11"/>
-    </row>
-    <row r="105" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E105" s="11"/>
-    </row>
-    <row r="106" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E106" s="11"/>
-    </row>
-    <row r="107" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E107" s="11"/>
-    </row>
-    <row r="108" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E108" s="11"/>
-    </row>
-    <row r="109" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E109" s="11"/>
-    </row>
-    <row r="110" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E110" s="11"/>
-    </row>
-    <row r="111" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E111" s="11"/>
-    </row>
-    <row r="112" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E112" s="11"/>
-    </row>
-    <row r="113" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E113" s="11"/>
-    </row>
-    <row r="114" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E114" s="11"/>
-    </row>
-    <row r="115" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E115" s="11"/>
-    </row>
-    <row r="116" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E116" s="11"/>
-    </row>
-    <row r="117" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E117" s="11"/>
-    </row>
-    <row r="118" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E118" s="11"/>
-    </row>
-    <row r="119" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E119" s="11"/>
-    </row>
-    <row r="120" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E120" s="11"/>
-    </row>
-    <row r="121" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E121" s="11"/>
-    </row>
-    <row r="122" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E122" s="11"/>
-    </row>
-    <row r="123" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E123" s="11"/>
-    </row>
-    <row r="124" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E124" s="11"/>
-    </row>
-    <row r="125" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E125" s="11"/>
-    </row>
-    <row r="126" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E126" s="11"/>
-    </row>
-    <row r="127" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E127" s="11"/>
-    </row>
-    <row r="128" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E128" s="11"/>
-    </row>
-    <row r="129" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E129" s="11"/>
-    </row>
-    <row r="130" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E130" s="11"/>
-    </row>
-    <row r="131" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E131" s="11"/>
-    </row>
-    <row r="132" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E132" s="11"/>
-    </row>
-    <row r="133" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E133" s="11"/>
-    </row>
-    <row r="134" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E134" s="11"/>
-    </row>
-    <row r="135" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E135" s="11"/>
-    </row>
-    <row r="136" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E136" s="11"/>
-    </row>
-    <row r="137" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E137" s="11"/>
-    </row>
-    <row r="138" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E138" s="11"/>
-    </row>
-    <row r="139" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E139" s="11"/>
-    </row>
-    <row r="140" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E140" s="11"/>
-    </row>
-    <row r="141" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E141" s="11"/>
-    </row>
-    <row r="142" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E142" s="11"/>
-    </row>
-    <row r="143" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E143" s="11"/>
-    </row>
-    <row r="144" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E144" s="11"/>
-    </row>
-    <row r="145" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E145" s="11"/>
-    </row>
-    <row r="146" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E146" s="11"/>
-    </row>
-    <row r="147" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E147" s="11"/>
-    </row>
-    <row r="148" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E148" s="11"/>
-    </row>
-    <row r="149" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E149" s="11"/>
-    </row>
-    <row r="150" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E150" s="11"/>
-    </row>
-    <row r="151" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E151" s="11"/>
-    </row>
-    <row r="152" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E152" s="11"/>
-    </row>
-    <row r="153" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E153" s="11"/>
-    </row>
-    <row r="154" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E154" s="11"/>
-    </row>
-    <row r="155" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E155" s="11"/>
-    </row>
-    <row r="156" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E156" s="11"/>
-    </row>
-    <row r="157" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E157" s="11"/>
-    </row>
-    <row r="158" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E158" s="11"/>
-    </row>
-    <row r="159" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E159" s="11"/>
-    </row>
-    <row r="160" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E160" s="11"/>
-    </row>
-    <row r="161" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E161" s="11"/>
-    </row>
-    <row r="162" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E162" s="11"/>
-    </row>
-    <row r="163" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E163" s="11"/>
-    </row>
-    <row r="164" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E164" s="11"/>
-    </row>
-    <row r="165" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E165" s="11"/>
-    </row>
-    <row r="166" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E166" s="11"/>
-    </row>
-    <row r="167" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E167" s="11"/>
-    </row>
-    <row r="168" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E168" s="11"/>
-    </row>
-    <row r="169" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E169" s="11"/>
-    </row>
-    <row r="170" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E170" s="11"/>
-    </row>
-    <row r="171" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E171" s="11"/>
-    </row>
-    <row r="172" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E172" s="11"/>
-    </row>
-    <row r="173" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E173" s="11"/>
-    </row>
-    <row r="174" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E174" s="11"/>
-    </row>
-    <row r="175" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E175" s="11"/>
-    </row>
-    <row r="176" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E176" s="11"/>
-    </row>
-    <row r="177" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E177" s="11"/>
-    </row>
-    <row r="178" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E178" s="11"/>
-    </row>
-    <row r="179" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E179" s="11"/>
-    </row>
-    <row r="180" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E180" s="11"/>
-    </row>
-    <row r="181" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E181" s="11"/>
-    </row>
-    <row r="182" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E182" s="11"/>
-    </row>
-    <row r="183" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E183" s="11"/>
-    </row>
-    <row r="184" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E184" s="11"/>
-    </row>
-    <row r="185" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E185" s="11"/>
-    </row>
-    <row r="186" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E186" s="11"/>
-    </row>
-    <row r="187" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E187" s="11"/>
-    </row>
-    <row r="188" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E188" s="11"/>
-    </row>
-    <row r="189" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E189" s="11"/>
-    </row>
-    <row r="190" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E190" s="11"/>
-    </row>
-    <row r="191" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E191" s="11"/>
-    </row>
-    <row r="192" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E192" s="11"/>
-    </row>
-    <row r="193" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E193" s="11"/>
-    </row>
-    <row r="194" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E194" s="11"/>
-    </row>
-    <row r="195" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E195" s="11"/>
-    </row>
-    <row r="196" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E196" s="11"/>
-    </row>
-    <row r="197" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E197" s="11"/>
-    </row>
-    <row r="198" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E198" s="11"/>
-    </row>
-    <row r="199" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E199" s="11"/>
-    </row>
-    <row r="200" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E200" s="11"/>
-    </row>
-    <row r="201" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E201" s="11"/>
-    </row>
-    <row r="202" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E202" s="11"/>
-    </row>
-    <row r="203" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E203" s="11"/>
-    </row>
-    <row r="204" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E204" s="11"/>
-    </row>
-    <row r="205" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E205" s="11"/>
-    </row>
-    <row r="206" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E206" s="11"/>
-    </row>
-    <row r="207" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E207" s="11"/>
-    </row>
-    <row r="208" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E208" s="11"/>
-    </row>
-    <row r="209" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E209" s="11"/>
-    </row>
-    <row r="210" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E210" s="11"/>
-    </row>
-    <row r="211" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E211" s="11"/>
-    </row>
-    <row r="212" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E212" s="11"/>
-    </row>
-    <row r="213" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E213" s="11"/>
-    </row>
-    <row r="214" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E214" s="11"/>
-    </row>
-    <row r="215" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E215" s="11"/>
-    </row>
-    <row r="216" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E216" s="11"/>
-    </row>
-    <row r="217" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E217" s="11"/>
-    </row>
-    <row r="218" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E218" s="11"/>
-    </row>
-    <row r="219" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E219" s="11"/>
-    </row>
-    <row r="220" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E220" s="11"/>
-    </row>
-    <row r="221" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E221" s="11"/>
-    </row>
-    <row r="222" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E222" s="11"/>
-    </row>
-    <row r="223" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E223" s="11"/>
-    </row>
-    <row r="224" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E224" s="11"/>
-    </row>
-    <row r="225" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E225" s="11"/>
-    </row>
-    <row r="226" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E226" s="11"/>
-    </row>
-    <row r="227" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E227" s="11"/>
-    </row>
-    <row r="228" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E228" s="11"/>
-    </row>
-    <row r="229" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E229" s="11"/>
-    </row>
-    <row r="230" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E230" s="11"/>
-    </row>
-    <row r="231" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E231" s="11"/>
-    </row>
-    <row r="232" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E232" s="11"/>
-    </row>
-    <row r="233" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E233" s="11"/>
-    </row>
-    <row r="234" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E234" s="11"/>
-    </row>
-    <row r="235" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E235" s="11"/>
-    </row>
-    <row r="236" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E236" s="11"/>
-    </row>
-    <row r="237" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E237" s="11"/>
-    </row>
-    <row r="238" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E238" s="11"/>
-    </row>
-    <row r="239" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E239" s="11"/>
-    </row>
-    <row r="240" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E240" s="11"/>
-    </row>
-    <row r="241" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E241" s="11"/>
-    </row>
-    <row r="242" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E242" s="11"/>
-    </row>
-    <row r="243" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E243" s="11"/>
-    </row>
-    <row r="244" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E244" s="11"/>
-    </row>
-    <row r="245" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E245" s="11"/>
-    </row>
-    <row r="246" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E246" s="11"/>
-    </row>
-    <row r="247" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E247" s="11"/>
-    </row>
-    <row r="248" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E248" s="11"/>
-    </row>
-    <row r="249" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E249" s="11"/>
-    </row>
-    <row r="250" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E250" s="11"/>
-    </row>
-    <row r="251" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E251" s="11"/>
-    </row>
-    <row r="252" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E252" s="11"/>
-    </row>
-    <row r="253" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E253" s="11"/>
-    </row>
-    <row r="254" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E254" s="11"/>
-    </row>
-    <row r="255" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E255" s="11"/>
-    </row>
-    <row r="256" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="6">
+        <v>45611</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80" s="5">
+        <v>27.977964</v>
+      </c>
+      <c r="D80" s="5">
+        <v>-82.832233000000002</v>
+      </c>
+      <c r="E80" s="10">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="6">
+        <v>45611</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C81" s="5">
+        <v>28.056318000000001</v>
+      </c>
+      <c r="D81" s="5">
+        <v>-82.824160000000006</v>
+      </c>
+      <c r="E81" s="10">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="6">
+        <v>45611</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C82" s="4">
+        <v>28.153919999999999</v>
+      </c>
+      <c r="D82" s="4">
+        <v>-82.806610000000006</v>
+      </c>
+      <c r="E82" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>45614</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83" s="5">
+        <v>27.61336</v>
+      </c>
+      <c r="D83" s="5">
+        <v>-82.737459999999999</v>
+      </c>
+      <c r="E83" s="10">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>45614</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84" s="5">
+        <v>27.698</v>
+      </c>
+      <c r="D84" s="5">
+        <v>-82.738523000000001</v>
+      </c>
+      <c r="E84" s="10">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>45614</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" s="5">
+        <v>27.742989999999999</v>
+      </c>
+      <c r="D85" s="5">
+        <v>-82.759140000000002</v>
+      </c>
+      <c r="E85" s="10">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>45614</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" s="5">
+        <v>27.801079999999999</v>
+      </c>
+      <c r="D86" s="5">
+        <v>-82.803179999999998</v>
+      </c>
+      <c r="E86" s="10">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>45614</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" s="4">
+        <v>27.832253999999999</v>
+      </c>
+      <c r="D87" s="4">
+        <v>-82.835544999999996</v>
+      </c>
+      <c r="E87" s="10">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>45614</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C88" s="4">
+        <v>27.900390000000002</v>
+      </c>
+      <c r="D88" s="4">
+        <v>-82.849379999999996</v>
+      </c>
+      <c r="E88" s="10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>45614</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C89" s="5">
+        <v>27.977964</v>
+      </c>
+      <c r="D89" s="5">
+        <v>-82.832233000000002</v>
+      </c>
+      <c r="E89" s="10">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>45616</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90" s="5">
+        <v>27.61336</v>
+      </c>
+      <c r="D90" s="5">
+        <v>-82.737459999999999</v>
+      </c>
+      <c r="E90" s="10">
+        <v>79000</v>
+      </c>
+      <c r="F90" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>45616</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C91" s="5">
+        <v>27.616150000000001</v>
+      </c>
+      <c r="D91" s="5">
+        <v>-82.726280000000003</v>
+      </c>
+      <c r="E91" s="10">
+        <v>23000</v>
+      </c>
+      <c r="F91" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>45616</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92" s="5">
+        <v>27.698</v>
+      </c>
+      <c r="D92" s="5">
+        <v>-82.738523000000001</v>
+      </c>
+      <c r="E92" s="10">
+        <v>24000</v>
+      </c>
+      <c r="F92" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>45616</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" s="5">
+        <v>27.742989999999999</v>
+      </c>
+      <c r="D93" s="5">
+        <v>-82.759140000000002</v>
+      </c>
+      <c r="E93" s="10">
+        <v>66000</v>
+      </c>
+      <c r="F93" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>45616</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94" s="5">
+        <v>27.801079999999999</v>
+      </c>
+      <c r="D94" s="5">
+        <v>-82.803179999999998</v>
+      </c>
+      <c r="E94" s="10">
+        <v>65000</v>
+      </c>
+      <c r="F94" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>45616</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95" s="4">
+        <v>27.832253999999999</v>
+      </c>
+      <c r="D95" s="4">
+        <v>-82.835544999999996</v>
+      </c>
+      <c r="E95" s="10">
+        <v>49000</v>
+      </c>
+      <c r="F95" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>45616</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C96" s="5">
+        <v>27.900386999999998</v>
+      </c>
+      <c r="D96" s="5">
+        <v>-82.849378000000002</v>
+      </c>
+      <c r="E96" s="10">
+        <v>33000</v>
+      </c>
+      <c r="F96" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>45616</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C97" s="4">
+        <v>27.977964</v>
+      </c>
+      <c r="D97" s="4">
+        <v>-82.832233000000002</v>
+      </c>
+      <c r="E97" s="10">
+        <v>1000</v>
+      </c>
+      <c r="F97" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>45616</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C98" s="4">
+        <v>28.056318000000001</v>
+      </c>
+      <c r="D98" s="4">
+        <v>-82.824160000000006</v>
+      </c>
+      <c r="E98" s="10">
+        <v>7000</v>
+      </c>
+      <c r="F98" s="2">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>45616</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C99" s="4">
+        <v>28.153918999999998</v>
+      </c>
+      <c r="D99" s="4">
+        <v>-82.806607</v>
+      </c>
+      <c r="E99" s="10">
+        <v>0</v>
+      </c>
+      <c r="F99" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="6">
+        <v>45618</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" s="5">
+        <v>27.61336</v>
+      </c>
+      <c r="D100" s="5">
+        <v>-82.737459999999999</v>
+      </c>
+      <c r="E100" s="10">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="6">
+        <v>45618</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101" s="5">
+        <v>27.698</v>
+      </c>
+      <c r="D101" s="5">
+        <v>-82.738523000000001</v>
+      </c>
+      <c r="E101" s="10">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="6">
+        <v>45618</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102" s="5">
+        <v>27.742989999999999</v>
+      </c>
+      <c r="D102" s="5">
+        <v>-82.759140000000002</v>
+      </c>
+      <c r="E102" s="10">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="6">
+        <v>45618</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" s="5">
+        <v>27.801079999999999</v>
+      </c>
+      <c r="D103" s="5">
+        <v>-82.803179999999998</v>
+      </c>
+      <c r="E103" s="10">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="6">
+        <v>45618</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C104" s="4">
+        <v>27.832253999999999</v>
+      </c>
+      <c r="D104" s="4">
+        <v>-82.835544999999996</v>
+      </c>
+      <c r="E104" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="6">
+        <v>45618</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C105" s="5">
+        <v>27.900386999999998</v>
+      </c>
+      <c r="D105" s="5">
+        <v>-82.849378000000002</v>
+      </c>
+      <c r="E105" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="6">
+        <v>45618</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C106" s="4">
+        <v>27.977964</v>
+      </c>
+      <c r="D106" s="4">
+        <v>-82.832233000000002</v>
+      </c>
+      <c r="E106" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="6">
+        <v>45621</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C107" s="4">
+        <v>28.153919999999999</v>
+      </c>
+      <c r="D107" s="4">
+        <v>-82.806610000000006</v>
+      </c>
+      <c r="E107" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="6">
+        <v>45621</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C108" s="4">
+        <v>28.056318000000001</v>
+      </c>
+      <c r="D108" s="4">
+        <v>-82.824160000000006</v>
+      </c>
+      <c r="E108" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="6">
+        <v>45621</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C109" s="4">
+        <v>27.977964</v>
+      </c>
+      <c r="D109" s="4">
+        <v>-82.832233000000002</v>
+      </c>
+      <c r="E109" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="6">
+        <v>45621</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C110" s="4">
+        <v>27.955749999999998</v>
+      </c>
+      <c r="D110" s="4">
+        <v>-82.832970000000003</v>
+      </c>
+      <c r="E110" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="6">
+        <v>45621</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C111" s="5">
+        <v>27.900386999999998</v>
+      </c>
+      <c r="D111" s="5">
+        <v>-82.849378000000002</v>
+      </c>
+      <c r="E111" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="6">
+        <v>45621</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C112" s="4">
+        <v>27.832253999999999</v>
+      </c>
+      <c r="D112" s="4">
+        <v>-82.835544999999996</v>
+      </c>
+      <c r="E112" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="6">
+        <v>45621</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C113" s="5">
+        <v>27.801079999999999</v>
+      </c>
+      <c r="D113" s="5">
+        <v>-82.803179999999998</v>
+      </c>
+      <c r="E113" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="6">
+        <v>45621</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C114" s="5">
+        <v>27.742989999999999</v>
+      </c>
+      <c r="D114" s="5">
+        <v>-82.759140000000002</v>
+      </c>
+      <c r="E114" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="6">
+        <v>45621</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C115" s="5">
+        <v>27.698</v>
+      </c>
+      <c r="D115" s="5">
+        <v>-82.738523000000001</v>
+      </c>
+      <c r="E115" s="12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="6">
+        <v>45621</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C116" s="5">
+        <v>27.61336</v>
+      </c>
+      <c r="D116" s="5">
+        <v>-82.737459999999999</v>
+      </c>
+      <c r="E116" s="12">
+        <v>229000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="6">
+        <v>45621</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C117" s="5">
+        <v>27.616150000000001</v>
+      </c>
+      <c r="D117" s="5">
+        <v>-82.726280000000003</v>
+      </c>
+      <c r="E117" s="12">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="6">
+        <v>45623</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C118" s="5">
+        <v>27.61336</v>
+      </c>
+      <c r="D118" s="5">
+        <v>-82.737459999999999</v>
+      </c>
+      <c r="E118" s="10">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="6">
+        <v>45623</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C119" s="5">
+        <v>27.616150000000001</v>
+      </c>
+      <c r="D119" s="5">
+        <v>-82.726280000000003</v>
+      </c>
+      <c r="E119" s="10">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="6">
+        <v>45623</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C120" s="5">
+        <v>27.698</v>
+      </c>
+      <c r="D120" s="5">
+        <v>-82.738523000000001</v>
+      </c>
+      <c r="E120" s="10">
+        <v>1146000</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="6">
+        <v>45623</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121" s="5">
+        <v>27.742989999999999</v>
+      </c>
+      <c r="D121" s="5">
+        <v>-82.759140000000002</v>
+      </c>
+      <c r="E121" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="6">
+        <v>45623</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122" s="5">
+        <v>27.801079999999999</v>
+      </c>
+      <c r="D122" s="5">
+        <v>-82.803179999999998</v>
+      </c>
+      <c r="E122" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="6">
+        <v>45623</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C123" s="4">
+        <v>27.832253999999999</v>
+      </c>
+      <c r="D123" s="4">
+        <v>-82.835544999999996</v>
+      </c>
+      <c r="E123" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="6">
+        <v>45623</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C124" s="5">
+        <v>27.900386999999998</v>
+      </c>
+      <c r="D124" s="5">
+        <v>-82.849378000000002</v>
+      </c>
+      <c r="E124" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="6">
+        <v>45623</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C125" s="4">
+        <v>27.955749999999998</v>
+      </c>
+      <c r="D125" s="4">
+        <v>-82.832970000000003</v>
+      </c>
+      <c r="E125" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="6">
+        <v>45623</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C126" s="4">
+        <v>27.977964</v>
+      </c>
+      <c r="D126" s="4">
+        <v>-82.832233000000002</v>
+      </c>
+      <c r="E126" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="6">
+        <v>45623</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C127" s="4">
+        <v>28.056318000000001</v>
+      </c>
+      <c r="D127" s="4">
+        <v>-82.824160000000006</v>
+      </c>
+      <c r="E127" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="6">
+        <v>45623</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C128" s="4">
+        <v>28.153918999999998</v>
+      </c>
+      <c r="D128" s="4">
+        <v>-82.806607</v>
+      </c>
+      <c r="E128" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="6">
+        <v>45628</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C129" s="5">
+        <v>27.61336</v>
+      </c>
+      <c r="D129" s="5">
+        <v>-82.737459999999999</v>
+      </c>
+      <c r="E129" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="6">
+        <v>45628</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C130" s="5">
+        <v>27.616150000000001</v>
+      </c>
+      <c r="D130" s="5">
+        <v>-82.726280000000003</v>
+      </c>
+      <c r="E130" s="10">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="6">
+        <v>45628</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C131" s="5">
+        <v>27.698</v>
+      </c>
+      <c r="D131" s="5">
+        <v>-82.738523000000001</v>
+      </c>
+      <c r="E131" s="10">
+        <v>144000</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="6">
+        <v>45628</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C132" s="5">
+        <v>27.742989999999999</v>
+      </c>
+      <c r="D132" s="5">
+        <v>-82.759140000000002</v>
+      </c>
+      <c r="E132" s="10">
+        <v>68000</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="6">
+        <v>45628</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133" s="5">
+        <v>27.801079999999999</v>
+      </c>
+      <c r="D133" s="5">
+        <v>-82.803179999999998</v>
+      </c>
+      <c r="E133" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="6">
+        <v>45628</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C134" s="4">
+        <v>27.832253999999999</v>
+      </c>
+      <c r="D134" s="4">
+        <v>-82.835544999999996</v>
+      </c>
+      <c r="E134" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="6">
+        <v>45628</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C135" s="5">
+        <v>27.900386999999998</v>
+      </c>
+      <c r="D135" s="5">
+        <v>-82.849378000000002</v>
+      </c>
+      <c r="E135" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="6">
+        <v>45628</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C136" s="4">
+        <v>27.955749999999998</v>
+      </c>
+      <c r="D136" s="4">
+        <v>-82.832970000000003</v>
+      </c>
+      <c r="E136" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="6">
+        <v>45628</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C137" s="4">
+        <v>27.977964</v>
+      </c>
+      <c r="D137" s="4">
+        <v>-82.832233000000002</v>
+      </c>
+      <c r="E137" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="6">
+        <v>45628</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C138" s="4">
+        <v>28.056318000000001</v>
+      </c>
+      <c r="D138" s="4">
+        <v>-82.824160000000006</v>
+      </c>
+      <c r="E138" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="6">
+        <v>45628</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C139" s="4">
+        <v>28.153918999999998</v>
+      </c>
+      <c r="D139" s="4">
+        <v>-82.806607</v>
+      </c>
+      <c r="E139" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="6">
+        <v>45630</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C140" s="5">
+        <v>27.61336</v>
+      </c>
+      <c r="D140" s="5">
+        <v>-82.737459999999999</v>
+      </c>
+      <c r="E140" s="10">
+        <v>6000</v>
+      </c>
+      <c r="F140" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="6">
+        <v>45630</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C141" s="5">
+        <v>27.698</v>
+      </c>
+      <c r="D141" s="5">
+        <v>-82.738523000000001</v>
+      </c>
+      <c r="E141" s="10">
+        <v>18000</v>
+      </c>
+      <c r="F141" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="6">
+        <v>45630</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C142" s="5">
+        <v>27.742989999999999</v>
+      </c>
+      <c r="D142" s="5">
+        <v>-82.759140000000002</v>
+      </c>
+      <c r="E142" s="10">
+        <v>0</v>
+      </c>
+      <c r="F142" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="6">
+        <v>45630</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C143" s="5">
+        <v>27.801079999999999</v>
+      </c>
+      <c r="D143" s="5">
+        <v>-82.803179999999998</v>
+      </c>
+      <c r="E143" s="10">
+        <v>0</v>
+      </c>
+      <c r="F143" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="6">
+        <v>45630</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C144" s="4">
+        <v>27.832253999999999</v>
+      </c>
+      <c r="D144" s="4">
+        <v>-82.835544999999996</v>
+      </c>
+      <c r="E144" s="10">
+        <v>0</v>
+      </c>
+      <c r="F144" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="6">
+        <v>45630</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C145" s="5">
+        <v>27.900386999999998</v>
+      </c>
+      <c r="D145" s="5">
+        <v>-82.849378000000002</v>
+      </c>
+      <c r="E145" s="10">
+        <v>0</v>
+      </c>
+      <c r="F145" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="6">
+        <v>45630</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C146" s="4">
+        <v>27.977964</v>
+      </c>
+      <c r="D146" s="4">
+        <v>-82.832233000000002</v>
+      </c>
+      <c r="E146" s="10">
+        <v>0</v>
+      </c>
+      <c r="F146" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>45632</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C147" s="5">
+        <v>27.61336</v>
+      </c>
+      <c r="D147" s="5">
+        <v>-82.737459999999999</v>
+      </c>
+      <c r="E147" s="13">
+        <v>74000</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>45632</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C148" s="5">
+        <v>27.616150000000001</v>
+      </c>
+      <c r="D148" s="5">
+        <v>-82.726280000000003</v>
+      </c>
+      <c r="E148" s="13">
+        <v>49000</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>45632</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C149" s="5">
+        <v>27.698</v>
+      </c>
+      <c r="D149" s="5">
+        <v>-82.738523000000001</v>
+      </c>
+      <c r="E149" s="13">
+        <v>472000</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>45632</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C150" s="5">
+        <v>27.742989999999999</v>
+      </c>
+      <c r="D150" s="5">
+        <v>-82.759140000000002</v>
+      </c>
+      <c r="E150" s="13">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>45632</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C151" s="5">
+        <v>27.801079999999999</v>
+      </c>
+      <c r="D151" s="5">
+        <v>-82.803179999999998</v>
+      </c>
+      <c r="E151" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>45632</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C152" s="4">
+        <v>27.832253999999999</v>
+      </c>
+      <c r="D152" s="4">
+        <v>-82.835544999999996</v>
+      </c>
+      <c r="E152" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>45632</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C153" s="5">
+        <v>27.900386999999998</v>
+      </c>
+      <c r="D153" s="5">
+        <v>-82.849378000000002</v>
+      </c>
+      <c r="E153" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>45632</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C154" s="4">
+        <v>27.955749999999998</v>
+      </c>
+      <c r="D154" s="4">
+        <v>-82.832970000000003</v>
+      </c>
+      <c r="E154" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>45632</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C155" s="4">
+        <v>27.977964</v>
+      </c>
+      <c r="D155" s="4">
+        <v>-82.832233000000002</v>
+      </c>
+      <c r="E155" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>45632</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C156" s="4">
+        <v>28.056318000000001</v>
+      </c>
+      <c r="D156" s="4">
+        <v>-82.824160000000006</v>
+      </c>
+      <c r="E156" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>45632</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C157" s="4">
+        <v>28.153918999999998</v>
+      </c>
+      <c r="D157" s="4">
+        <v>-82.806607</v>
+      </c>
+      <c r="E157" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>45637</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C158" s="5">
+        <v>27.61336</v>
+      </c>
+      <c r="D158" s="5">
+        <v>-82.737459999999999</v>
+      </c>
+      <c r="E158" s="13">
+        <v>191000</v>
+      </c>
+      <c r="F158" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>45637</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C159" s="5">
+        <v>27.616150000000001</v>
+      </c>
+      <c r="D159" s="5">
+        <v>-82.726280000000003</v>
+      </c>
+      <c r="E159" s="13">
+        <v>146000</v>
+      </c>
+      <c r="F159" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>45637</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C160" s="5">
+        <v>27.698</v>
+      </c>
+      <c r="D160" s="5">
+        <v>-82.738523000000001</v>
+      </c>
+      <c r="E160" s="13">
+        <v>8000</v>
+      </c>
+      <c r="F160" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>45637</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C161" s="5">
+        <v>27.742989999999999</v>
+      </c>
+      <c r="D161" s="5">
+        <v>-82.759140000000002</v>
+      </c>
+      <c r="E161" s="13">
+        <v>29000</v>
+      </c>
+      <c r="F161" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>45637</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C162" s="5">
+        <v>27.801079999999999</v>
+      </c>
+      <c r="D162" s="5">
+        <v>-82.803179999999998</v>
+      </c>
+      <c r="E162" s="13">
+        <v>1000</v>
+      </c>
+      <c r="F162" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>45637</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C163" s="4">
+        <v>28.153918999999998</v>
+      </c>
+      <c r="D163" s="4">
+        <v>-82.806607</v>
+      </c>
+      <c r="E163" s="13">
+        <v>0</v>
+      </c>
+      <c r="F163" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" s="6">
+        <v>45639</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C164" s="5">
+        <v>27.61336</v>
+      </c>
+      <c r="D164" s="5">
+        <v>-82.737459999999999</v>
+      </c>
+      <c r="E164" s="13">
+        <v>46000</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" s="6">
+        <v>45639</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C165" s="5">
+        <v>27.698</v>
+      </c>
+      <c r="D165" s="5">
+        <v>-82.738523000000001</v>
+      </c>
+      <c r="E165" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" s="6">
+        <v>45639</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C166" s="5">
+        <v>27.742989999999999</v>
+      </c>
+      <c r="D166" s="5">
+        <v>-82.759140000000002</v>
+      </c>
+      <c r="E166" s="13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" s="6">
+        <v>45639</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C167" s="5">
+        <v>27.801079999999999</v>
+      </c>
+      <c r="D167" s="5">
+        <v>-82.803179999999998</v>
+      </c>
+      <c r="E167" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" s="6">
+        <v>45639</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C168" s="4">
+        <v>27.832253999999999</v>
+      </c>
+      <c r="D168" s="4">
+        <v>-82.835544999999996</v>
+      </c>
+      <c r="E168" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" s="6">
+        <v>45639</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C169" s="5">
+        <v>27.900386999999998</v>
+      </c>
+      <c r="D169" s="5">
+        <v>-82.849378000000002</v>
+      </c>
+      <c r="E169" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" s="6">
+        <v>45639</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C170" s="4">
+        <v>27.977964</v>
+      </c>
+      <c r="D170" s="4">
+        <v>-82.832233000000002</v>
+      </c>
+      <c r="E170" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" s="6">
+        <v>45644</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C171" s="5">
+        <v>27.61336</v>
+      </c>
+      <c r="D171" s="5">
+        <v>-82.737459999999999</v>
+      </c>
+      <c r="E171" s="13">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" s="6">
+        <v>45644</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C172" s="5">
+        <v>27.698</v>
+      </c>
+      <c r="D172" s="5">
+        <v>-82.738523000000001</v>
+      </c>
+      <c r="E172" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" s="6">
+        <v>45644</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C173" s="5">
+        <v>27.742989999999999</v>
+      </c>
+      <c r="D173" s="5">
+        <v>-82.759140000000002</v>
+      </c>
+      <c r="E173" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" s="6">
+        <v>45644</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C174" s="5">
+        <v>27.801079999999999</v>
+      </c>
+      <c r="D174" s="5">
+        <v>-82.803179999999998</v>
+      </c>
+      <c r="E174" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" s="6">
+        <v>45644</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C175" s="4">
+        <v>27.832253999999999</v>
+      </c>
+      <c r="D175" s="4">
+        <v>-82.835544999999996</v>
+      </c>
+      <c r="E175" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" s="6">
+        <v>45644</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C176" s="5">
+        <v>27.900386999999998</v>
+      </c>
+      <c r="D176" s="5">
+        <v>-82.849378000000002</v>
+      </c>
+      <c r="E176" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="6">
+        <v>45644</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C177" s="4">
+        <v>27.977964</v>
+      </c>
+      <c r="D177" s="4">
+        <v>-82.832233000000002</v>
+      </c>
+      <c r="E177" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="6">
+        <v>45652</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C178" s="5">
+        <v>27.616150000000001</v>
+      </c>
+      <c r="D178" s="5">
+        <v>-82.726280000000003</v>
+      </c>
+      <c r="E178" s="14">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="6">
+        <v>45652</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C179" s="5">
+        <v>27.61336</v>
+      </c>
+      <c r="D179" s="5">
+        <v>-82.737459999999999</v>
+      </c>
+      <c r="E179" s="14">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="6">
+        <v>45652</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C180" s="5">
+        <v>27.698</v>
+      </c>
+      <c r="D180" s="5">
+        <v>-82.738523000000001</v>
+      </c>
+      <c r="E180" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="6">
+        <v>45652</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C181" s="5">
+        <v>27.742989999999999</v>
+      </c>
+      <c r="D181" s="5">
+        <v>-82.759140000000002</v>
+      </c>
+      <c r="E181" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="6">
+        <v>45652</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C182" s="5">
+        <v>27.801079999999999</v>
+      </c>
+      <c r="D182" s="5">
+        <v>-82.803179999999998</v>
+      </c>
+      <c r="E182" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="6">
+        <v>45652</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C183" s="5">
+        <v>27.832253999999999</v>
+      </c>
+      <c r="D183" s="5">
+        <v>-82.835544999999996</v>
+      </c>
+      <c r="E183" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="6">
+        <v>45652</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C184" s="5">
+        <v>27.900386999999998</v>
+      </c>
+      <c r="D184" s="5">
+        <v>-82.849378000000002</v>
+      </c>
+      <c r="E184" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="6">
+        <v>45652</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C185" s="5">
+        <v>27.955749999999998</v>
+      </c>
+      <c r="D185" s="5">
+        <v>-82.832970000000003</v>
+      </c>
+      <c r="E185" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="6">
+        <v>45652</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C186" s="5">
+        <v>27.977964</v>
+      </c>
+      <c r="D186" s="5">
+        <v>-82.832233000000002</v>
+      </c>
+      <c r="E186" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="6">
+        <v>45652</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C187" s="5">
+        <v>28.056318000000001</v>
+      </c>
+      <c r="D187" s="5">
+        <v>-82.824160000000006</v>
+      </c>
+      <c r="E187" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="6">
+        <v>45652</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C188" s="5">
+        <v>28.153919999999999</v>
+      </c>
+      <c r="D188" s="5">
+        <v>-82.806610000000006</v>
+      </c>
+      <c r="E188" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="6">
+        <v>45659</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C189" s="5">
+        <v>27.61336</v>
+      </c>
+      <c r="D189" s="5">
+        <v>-82.737459999999999</v>
+      </c>
+      <c r="E189" s="15">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="6">
+        <v>45659</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C190" s="5">
+        <v>27.616150000000001</v>
+      </c>
+      <c r="D190" s="5">
+        <v>-82.726280000000003</v>
+      </c>
+      <c r="E190" s="15">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="6">
+        <v>45659</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C191" s="5">
+        <v>27.698</v>
+      </c>
+      <c r="D191" s="5">
+        <v>-82.738523000000001</v>
+      </c>
+      <c r="E191" s="15">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="6">
+        <v>45659</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C192" s="5">
+        <v>27.742989999999999</v>
+      </c>
+      <c r="D192" s="5">
+        <v>-82.759140000000002</v>
+      </c>
+      <c r="E192" s="15">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" s="6">
+        <v>45659</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C193" s="5">
+        <v>27.801079999999999</v>
+      </c>
+      <c r="D193" s="5">
+        <v>-82.803179999999998</v>
+      </c>
+      <c r="E193" s="15">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" s="6">
+        <v>45659</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C194" s="4">
+        <v>27.832253999999999</v>
+      </c>
+      <c r="D194" s="4">
+        <v>-82.835544999999996</v>
+      </c>
+      <c r="E194" s="15">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" s="6">
+        <v>45659</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C195" s="5">
+        <v>27.900386999999998</v>
+      </c>
+      <c r="D195" s="5">
+        <v>-82.849378000000002</v>
+      </c>
+      <c r="E195" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" s="6">
+        <v>45659</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C196" s="4">
+        <v>27.955749999999998</v>
+      </c>
+      <c r="D196" s="4">
+        <v>-82.832970000000003</v>
+      </c>
+      <c r="E196" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" s="6">
+        <v>45659</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C197" s="4">
+        <v>27.977964</v>
+      </c>
+      <c r="D197" s="4">
+        <v>-82.832233000000002</v>
+      </c>
+      <c r="E197" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" s="6">
+        <v>45659</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C198" s="4">
+        <v>28.056318000000001</v>
+      </c>
+      <c r="D198" s="4">
+        <v>-82.824160000000006</v>
+      </c>
+      <c r="E198" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" s="6">
+        <v>45659</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C199" s="4">
+        <v>28.153918999999998</v>
+      </c>
+      <c r="D199" s="4">
+        <v>-82.806607</v>
+      </c>
+      <c r="E199" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" s="6">
+        <v>45664</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C200" s="5">
+        <v>27.616150000000001</v>
+      </c>
+      <c r="D200" s="5">
+        <v>-82.726280000000003</v>
+      </c>
+      <c r="E200" s="11">
+        <v>39000</v>
+      </c>
+      <c r="F200" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" s="6">
+        <v>45664</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C201" s="5">
+        <v>27.698</v>
+      </c>
+      <c r="D201" s="5">
+        <v>-82.738523000000001</v>
+      </c>
+      <c r="E201" s="11">
+        <v>0</v>
+      </c>
+      <c r="F201" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" s="6">
+        <v>45664</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C202" s="5">
+        <v>27.742989999999999</v>
+      </c>
+      <c r="D202" s="5">
+        <v>-82.759140000000002</v>
+      </c>
+      <c r="E202" s="11">
+        <v>1000</v>
+      </c>
+      <c r="F202" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" s="6">
+        <v>45664</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C203" s="5">
+        <v>27.801079999999999</v>
+      </c>
+      <c r="D203" s="5">
+        <v>-82.803179999999998</v>
+      </c>
+      <c r="E203" s="11">
+        <v>0</v>
+      </c>
+      <c r="F203" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" s="6">
+        <v>45664</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C204" s="4">
+        <v>27.832253999999999</v>
+      </c>
+      <c r="D204" s="4">
+        <v>-82.835544999999996</v>
+      </c>
+      <c r="E204" s="11">
+        <v>0</v>
+      </c>
+      <c r="F204" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" s="6">
+        <v>45664</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C205" s="5">
+        <v>27.900386999999998</v>
+      </c>
+      <c r="D205" s="5">
+        <v>-82.849378000000002</v>
+      </c>
+      <c r="E205" s="11">
+        <v>0</v>
+      </c>
+      <c r="F205" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206" s="6">
+        <v>45664</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C206" s="4">
+        <v>27.977964</v>
+      </c>
+      <c r="D206" s="4">
+        <v>-82.832233000000002</v>
+      </c>
+      <c r="E206" s="11">
+        <v>0</v>
+      </c>
+      <c r="F206" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
+        <v>45667</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C207" s="5">
+        <v>27.616150000000001</v>
+      </c>
+      <c r="D207" s="5">
+        <v>-82.726280000000003</v>
+      </c>
+      <c r="E207" s="11">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>45667</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C208" s="5">
+        <v>27.698</v>
+      </c>
+      <c r="D208" s="5">
+        <v>-82.738523000000001</v>
+      </c>
+      <c r="E208" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
+        <v>45667</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C209" s="5">
+        <v>27.742989999999999</v>
+      </c>
+      <c r="D209" s="5">
+        <v>-82.759140000000002</v>
+      </c>
+      <c r="E209" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
+        <v>45667</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C210" s="5">
+        <v>27.801079999999999</v>
+      </c>
+      <c r="D210" s="5">
+        <v>-82.803179999999998</v>
+      </c>
+      <c r="E210" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
+        <v>45667</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C211" s="4">
+        <v>27.832253999999999</v>
+      </c>
+      <c r="D211" s="4">
+        <v>-82.835544999999996</v>
+      </c>
+      <c r="E211" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <v>45667</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C212" s="5">
+        <v>27.900386999999998</v>
+      </c>
+      <c r="D212" s="5">
+        <v>-82.849378000000002</v>
+      </c>
+      <c r="E212" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
+        <v>45667</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C213" s="4">
+        <v>27.977964</v>
+      </c>
+      <c r="D213" s="4">
+        <v>-82.832233000000002</v>
+      </c>
+      <c r="E213" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214" s="6">
+        <v>45671</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C214" s="5">
+        <v>27.616150000000001</v>
+      </c>
+      <c r="D214" s="5">
+        <v>-82.726280000000003</v>
+      </c>
+      <c r="E214" s="13">
+        <v>65000</v>
+      </c>
+      <c r="F214" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215" s="6">
+        <v>45671</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C215" s="5">
+        <v>27.698</v>
+      </c>
+      <c r="D215" s="5">
+        <v>-82.738523000000001</v>
+      </c>
+      <c r="E215" s="13">
+        <v>0</v>
+      </c>
+      <c r="F215" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216" s="6">
+        <v>45671</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C216" s="5">
+        <v>27.742989999999999</v>
+      </c>
+      <c r="D216" s="5">
+        <v>-82.759140000000002</v>
+      </c>
+      <c r="E216" s="13">
+        <v>0</v>
+      </c>
+      <c r="F216" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217" s="6">
+        <v>45671</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C217" s="5">
+        <v>27.801079999999999</v>
+      </c>
+      <c r="D217" s="5">
+        <v>-82.803179999999998</v>
+      </c>
+      <c r="E217" s="13">
+        <v>0</v>
+      </c>
+      <c r="F217" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218" s="6">
+        <v>45671</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C218" s="4">
+        <v>27.832253999999999</v>
+      </c>
+      <c r="D218" s="4">
+        <v>-82.835544999999996</v>
+      </c>
+      <c r="E218" s="13">
+        <v>0</v>
+      </c>
+      <c r="F218" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219" s="6">
+        <v>45671</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C219" s="5">
+        <v>27.900386999999998</v>
+      </c>
+      <c r="D219" s="5">
+        <v>-82.849378000000002</v>
+      </c>
+      <c r="E219" s="13">
+        <v>0</v>
+      </c>
+      <c r="F219" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220" s="6">
+        <v>45671</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C220" s="4">
+        <v>27.977964</v>
+      </c>
+      <c r="D220" s="4">
+        <v>-82.832233000000002</v>
+      </c>
+      <c r="E220" s="13">
+        <v>0</v>
+      </c>
+      <c r="F220" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221" s="6">
+        <v>45674</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C221" s="5">
+        <v>27.616150000000001</v>
+      </c>
+      <c r="D221" s="5">
+        <v>-82.726280000000003</v>
+      </c>
+      <c r="E221" s="15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A222" s="6">
+        <v>45674</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C222" s="5">
+        <v>27.698</v>
+      </c>
+      <c r="D222" s="5">
+        <v>-82.738523000000001</v>
+      </c>
+      <c r="E222" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A223" s="6">
+        <v>45674</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C223" s="5">
+        <v>27.742989999999999</v>
+      </c>
+      <c r="D223" s="5">
+        <v>-82.759140000000002</v>
+      </c>
+      <c r="E223" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A224" s="6">
+        <v>45674</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C224" s="5">
+        <v>27.801079999999999</v>
+      </c>
+      <c r="D224" s="5">
+        <v>-82.803179999999998</v>
+      </c>
+      <c r="E224" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225" s="6">
+        <v>45674</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C225" s="4">
+        <v>27.832253999999999</v>
+      </c>
+      <c r="D225" s="4">
+        <v>-82.835544999999996</v>
+      </c>
+      <c r="E225" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226" s="6">
+        <v>45674</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C226" s="5">
+        <v>27.900386999999998</v>
+      </c>
+      <c r="D226" s="5">
+        <v>-82.849378000000002</v>
+      </c>
+      <c r="E226" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227" s="6">
+        <v>45674</v>
+      </c>
+      <c r="B227" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C227" s="4">
+        <v>27.977964</v>
+      </c>
+      <c r="D227" s="4">
+        <v>-82.832233000000002</v>
+      </c>
+      <c r="E227" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228" s="6">
+        <v>45681</v>
+      </c>
+      <c r="B228" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C228" s="5">
+        <v>27.616150000000001</v>
+      </c>
+      <c r="D228" s="5">
+        <v>-82.726280000000003</v>
+      </c>
+      <c r="E228" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229" s="6">
+        <v>45681</v>
+      </c>
+      <c r="B229" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C229" s="5">
+        <v>27.698</v>
+      </c>
+      <c r="D229" s="5">
+        <v>-82.738523000000001</v>
+      </c>
+      <c r="E229" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A230" s="6">
+        <v>45681</v>
+      </c>
+      <c r="B230" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C230" s="5">
+        <v>27.742989999999999</v>
+      </c>
+      <c r="D230" s="5">
+        <v>-82.759140000000002</v>
+      </c>
+      <c r="E230" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A231" s="6">
+        <v>45681</v>
+      </c>
+      <c r="B231" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C231" s="5">
+        <v>27.801079999999999</v>
+      </c>
+      <c r="D231" s="5">
+        <v>-82.803179999999998</v>
+      </c>
+      <c r="E231" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A232" s="6">
+        <v>45681</v>
+      </c>
+      <c r="B232" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C232" s="4">
+        <v>27.832253999999999</v>
+      </c>
+      <c r="D232" s="4">
+        <v>-82.835544999999996</v>
+      </c>
+      <c r="E232" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A233" s="6">
+        <v>45681</v>
+      </c>
+      <c r="B233" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C233" s="5">
+        <v>27.900386999999998</v>
+      </c>
+      <c r="D233" s="5">
+        <v>-82.849378000000002</v>
+      </c>
+      <c r="E233" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A234" s="6">
+        <v>45681</v>
+      </c>
+      <c r="B234" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C234" s="4">
+        <v>27.977964</v>
+      </c>
+      <c r="D234" s="4">
+        <v>-82.832233000000002</v>
+      </c>
+      <c r="E234" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235" s="6">
+        <v>45685</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C235" s="4">
+        <v>27.977964</v>
+      </c>
+      <c r="D235" s="4">
+        <v>-82.832233000000002</v>
+      </c>
+      <c r="E235" s="15">
+        <v>0</v>
+      </c>
+      <c r="F235" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A236" s="6">
+        <v>45685</v>
+      </c>
+      <c r="B236" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C236" s="5">
+        <v>27.900386999999998</v>
+      </c>
+      <c r="D236" s="5">
+        <v>-82.849378000000002</v>
+      </c>
+      <c r="E236" s="15">
+        <v>0</v>
+      </c>
+      <c r="F236" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A237" s="6">
+        <v>45685</v>
+      </c>
+      <c r="B237" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C237" s="4">
+        <v>27.832253999999999</v>
+      </c>
+      <c r="D237" s="4">
+        <v>-82.835544999999996</v>
+      </c>
+      <c r="E237" s="15">
+        <v>0</v>
+      </c>
+      <c r="F237" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A238" s="6">
+        <v>45685</v>
+      </c>
+      <c r="B238" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C238" s="5">
+        <v>27.801079999999999</v>
+      </c>
+      <c r="D238" s="5">
+        <v>-82.803179999999998</v>
+      </c>
+      <c r="E238" s="15">
+        <v>0</v>
+      </c>
+      <c r="F238" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A239" s="6">
+        <v>45685</v>
+      </c>
+      <c r="B239" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C239" s="5">
+        <v>27.742989999999999</v>
+      </c>
+      <c r="D239" s="5">
+        <v>-82.759140000000002</v>
+      </c>
+      <c r="E239" s="15">
+        <v>0</v>
+      </c>
+      <c r="F239" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A240" s="6">
+        <v>45685</v>
+      </c>
+      <c r="B240" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C240" s="5">
+        <v>27.698</v>
+      </c>
+      <c r="D240" s="5">
+        <v>-82.738523000000001</v>
+      </c>
+      <c r="E240" s="15">
+        <v>0</v>
+      </c>
+      <c r="F240" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241" s="6">
+        <v>45685</v>
+      </c>
+      <c r="B241" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C241" s="5">
+        <v>27.61336</v>
+      </c>
+      <c r="D241" s="5">
+        <v>-82.737459999999999</v>
+      </c>
+      <c r="E241" s="15">
+        <v>0</v>
+      </c>
+      <c r="F241" s="2">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A242" s="6">
+        <v>45688</v>
+      </c>
+      <c r="B242" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C242" s="5">
+        <v>27.61336</v>
+      </c>
+      <c r="D242" s="5">
+        <v>-82.737459999999999</v>
+      </c>
+      <c r="E242" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A243" s="6">
+        <v>45688</v>
+      </c>
+      <c r="B243" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C243" s="5">
+        <v>27.698</v>
+      </c>
+      <c r="D243" s="5">
+        <v>-82.738523000000001</v>
+      </c>
+      <c r="E243" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A244" s="6">
+        <v>45688</v>
+      </c>
+      <c r="B244" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C244" s="5">
+        <v>27.742989999999999</v>
+      </c>
+      <c r="D244" s="5">
+        <v>-82.759140000000002</v>
+      </c>
+      <c r="E244" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A245" s="6">
+        <v>45688</v>
+      </c>
+      <c r="B245" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C245" s="5">
+        <v>27.801079999999999</v>
+      </c>
+      <c r="D245" s="5">
+        <v>-82.803179999999998</v>
+      </c>
+      <c r="E245" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A246" s="6">
+        <v>45688</v>
+      </c>
+      <c r="B246" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C246" s="4">
+        <v>27.832253999999999</v>
+      </c>
+      <c r="D246" s="4">
+        <v>-82.835544999999996</v>
+      </c>
+      <c r="E246" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A247" s="6">
+        <v>45688</v>
+      </c>
+      <c r="B247" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C247" s="5">
+        <v>27.900386999999998</v>
+      </c>
+      <c r="D247" s="5">
+        <v>-82.849378000000002</v>
+      </c>
+      <c r="E247" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A248" s="6">
+        <v>45688</v>
+      </c>
+      <c r="B248" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C248" s="4">
+        <v>27.977964</v>
+      </c>
+      <c r="D248" s="4">
+        <v>-82.832233000000002</v>
+      </c>
+      <c r="E248" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A249" s="1">
+        <v>45692</v>
+      </c>
+      <c r="B249" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C249" s="5">
+        <v>27.61336</v>
+      </c>
+      <c r="D249" s="5">
+        <v>-82.737459999999999</v>
+      </c>
+      <c r="E249" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
+        <v>45692</v>
+      </c>
+      <c r="B250" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C250" s="5">
+        <v>27.698</v>
+      </c>
+      <c r="D250" s="5">
+        <v>-82.738523000000001</v>
+      </c>
+      <c r="E250" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A251" s="1">
+        <v>45692</v>
+      </c>
+      <c r="B251" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C251" s="5">
+        <v>27.742989999999999</v>
+      </c>
+      <c r="D251" s="5">
+        <v>-82.759140000000002</v>
+      </c>
+      <c r="E251" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A252" s="1">
+        <v>45692</v>
+      </c>
+      <c r="B252" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C252" s="5">
+        <v>27.801079999999999</v>
+      </c>
+      <c r="D252" s="5">
+        <v>-82.803179999999998</v>
+      </c>
+      <c r="E252" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A253" s="1">
+        <v>45692</v>
+      </c>
+      <c r="B253" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C253" s="4">
+        <v>27.832253999999999</v>
+      </c>
+      <c r="D253" s="4">
+        <v>-82.835544999999996</v>
+      </c>
+      <c r="E253" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A254" s="1">
+        <v>45692</v>
+      </c>
+      <c r="B254" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C254" s="5">
+        <v>27.900386999999998</v>
+      </c>
+      <c r="D254" s="5">
+        <v>-82.849378000000002</v>
+      </c>
+      <c r="E254" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A255" s="1">
+        <v>45692</v>
+      </c>
+      <c r="B255" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C255" s="4">
+        <v>27.977964</v>
+      </c>
+      <c r="D255" s="4">
+        <v>-82.832233000000002</v>
+      </c>
+      <c r="E255" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E256" s="11"/>
     </row>
     <row r="257" spans="5:5" x14ac:dyDescent="0.25">
@@ -2466,18 +5181,6 @@
     </row>
     <row r="273" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E273" s="11"/>
-    </row>
-    <row r="274" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E274" s="11"/>
-    </row>
-    <row r="275" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E275" s="11"/>
-    </row>
-    <row r="276" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E276" s="11"/>
-    </row>
-    <row r="277" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E277" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Pinellas_RedTide_Entero.xlsx
+++ b/Data/Pinellas_RedTide_Entero.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pinellasgov.sharepoint.com/sites/BCC-PW-ENVMT/Monitoring and Assessment/R/water_quality_dashboard/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="13_ncr:1_{55142012-268F-4019-B347-60665F0AFF56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ECDF42AA-3569-4BF4-9705-84171340383C}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="13_ncr:1_{55142012-268F-4019-B347-60665F0AFF56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B54096C-29D4-4EB7-A518-6C401BA4AE05}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A3C8BE64-6FAF-4B04-9CDF-43C9CA65836E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A3C8BE64-6FAF-4B04-9CDF-43C9CA65836E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="30">
   <si>
     <t>Site</t>
   </si>
@@ -185,7 +185,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -249,6 +249,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -564,11 +567,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72952526-ADD9-47FB-9AF2-808D0D3071F7}">
-  <dimension ref="A1:F1378"/>
+  <dimension ref="A1:F1392"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1355" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1379" sqref="F1379"/>
+      <pane ySplit="1" topLeftCell="A1368" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1393" sqref="F1393"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25570,6 +25573,272 @@
         <v>10</v>
       </c>
     </row>
+    <row r="1379" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1379" s="15">
+        <v>45748</v>
+      </c>
+      <c r="B1379" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1379" s="17">
+        <v>27.61336</v>
+      </c>
+      <c r="D1379" s="17">
+        <v>-82.737459999999999</v>
+      </c>
+      <c r="E1379" s="23">
+        <v>0</v>
+      </c>
+      <c r="F1379"/>
+    </row>
+    <row r="1380" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1380" s="15">
+        <v>45748</v>
+      </c>
+      <c r="B1380" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1380" s="17">
+        <v>27.698</v>
+      </c>
+      <c r="D1380" s="17">
+        <v>-82.738523000000001</v>
+      </c>
+      <c r="E1380" s="23">
+        <v>0</v>
+      </c>
+      <c r="F1380"/>
+    </row>
+    <row r="1381" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1381" s="15">
+        <v>45748</v>
+      </c>
+      <c r="B1381" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1381" s="17">
+        <v>27.742989999999999</v>
+      </c>
+      <c r="D1381" s="17">
+        <v>-82.759140000000002</v>
+      </c>
+      <c r="E1381" s="23">
+        <v>0</v>
+      </c>
+      <c r="F1381"/>
+    </row>
+    <row r="1382" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1382" s="15">
+        <v>45748</v>
+      </c>
+      <c r="B1382" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1382" s="17">
+        <v>27.801079999999999</v>
+      </c>
+      <c r="D1382" s="17">
+        <v>-82.803179999999998</v>
+      </c>
+      <c r="E1382" s="23">
+        <v>0</v>
+      </c>
+      <c r="F1382"/>
+    </row>
+    <row r="1383" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1383" s="15">
+        <v>45748</v>
+      </c>
+      <c r="B1383" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1383" s="16">
+        <v>27.832253999999999</v>
+      </c>
+      <c r="D1383" s="16">
+        <v>-82.835544999999996</v>
+      </c>
+      <c r="E1383" s="23">
+        <v>0</v>
+      </c>
+      <c r="F1383"/>
+    </row>
+    <row r="1384" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1384" s="15">
+        <v>45748</v>
+      </c>
+      <c r="B1384" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1384" s="17">
+        <v>27.900386999999998</v>
+      </c>
+      <c r="D1384" s="17">
+        <v>-82.849378000000002</v>
+      </c>
+      <c r="E1384" s="23">
+        <v>0</v>
+      </c>
+      <c r="F1384"/>
+    </row>
+    <row r="1385" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1385" s="15">
+        <v>45748</v>
+      </c>
+      <c r="B1385" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1385" s="16">
+        <v>27.977964</v>
+      </c>
+      <c r="D1385" s="16">
+        <v>-82.832233000000002</v>
+      </c>
+      <c r="E1385" s="23">
+        <v>0</v>
+      </c>
+      <c r="F1385"/>
+    </row>
+    <row r="1386" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1386" s="22">
+        <v>45755</v>
+      </c>
+      <c r="B1386" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1386" s="17">
+        <v>27.61336</v>
+      </c>
+      <c r="D1386" s="17">
+        <v>-82.737459999999999</v>
+      </c>
+      <c r="E1386" s="23">
+        <v>0</v>
+      </c>
+      <c r="F1386" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1387" s="22">
+        <v>45755</v>
+      </c>
+      <c r="B1387" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1387" s="17">
+        <v>27.698</v>
+      </c>
+      <c r="D1387" s="17">
+        <v>-82.738523000000001</v>
+      </c>
+      <c r="E1387" s="23">
+        <v>0</v>
+      </c>
+      <c r="F1387" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1388" s="22">
+        <v>45755</v>
+      </c>
+      <c r="B1388" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1388" s="17">
+        <v>27.742989999999999</v>
+      </c>
+      <c r="D1388" s="17">
+        <v>-82.759140000000002</v>
+      </c>
+      <c r="E1388" s="23">
+        <v>0</v>
+      </c>
+      <c r="F1388" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1389" s="22">
+        <v>45755</v>
+      </c>
+      <c r="B1389" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1389" s="17">
+        <v>27.801079999999999</v>
+      </c>
+      <c r="D1389" s="17">
+        <v>-82.803179999999998</v>
+      </c>
+      <c r="E1389" s="23">
+        <v>0</v>
+      </c>
+      <c r="F1389" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1390" s="22">
+        <v>45755</v>
+      </c>
+      <c r="B1390" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1390" s="16">
+        <v>27.832253999999999</v>
+      </c>
+      <c r="D1390" s="16">
+        <v>-82.835544999999996</v>
+      </c>
+      <c r="E1390" s="23">
+        <v>0</v>
+      </c>
+      <c r="F1390" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1391" s="22">
+        <v>45755</v>
+      </c>
+      <c r="B1391" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1391" s="17">
+        <v>27.900386999999998</v>
+      </c>
+      <c r="D1391" s="17">
+        <v>-82.849378000000002</v>
+      </c>
+      <c r="E1391" s="23">
+        <v>0</v>
+      </c>
+      <c r="F1391" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1392" s="22">
+        <v>45755</v>
+      </c>
+      <c r="B1392" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1392" s="16">
+        <v>27.977964</v>
+      </c>
+      <c r="D1392" s="16">
+        <v>-82.832233000000002</v>
+      </c>
+      <c r="E1392" s="23">
+        <v>0</v>
+      </c>
+      <c r="F1392" s="4">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -25577,8 +25846,28 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B730D8DC4DFB374C886B31D158660B04" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="40dc42a83900cad30360e960683c3586">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="20a86c8e-58bd-487e-986c-19c6170a5cfd" xmlns:ns3="ebcefb84-3943-4c67-86e4-95e0d5522177" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9898312aca643c200603b19ddb084df1" ns2:_="" ns3:_="">
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="ebcefb84-3943-4c67-86e4-95e0d5522177" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="20a86c8e-58bd-487e-986c-19c6170a5cfd">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B730D8DC4DFB374C886B31D158660B04" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6c7b2a44c3204d196172482da32476cf">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="20a86c8e-58bd-487e-986c-19c6170a5cfd" xmlns:ns3="ebcefb84-3943-4c67-86e4-95e0d5522177" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="447da8927e53f285c23cc8bbcad2da18" ns2:_="" ns3:_="">
     <xsd:import namespace="20a86c8e-58bd-487e-986c-19c6170a5cfd"/>
     <xsd:import namespace="ebcefb84-3943-4c67-86e4-95e0d5522177"/>
     <xsd:element name="properties">
@@ -25599,6 +25888,7 @@
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceBillingMetadata" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -25666,6 +25956,11 @@
     <xsd:element name="MediaServiceLocation" ma:index="20" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceBillingMetadata" ma:index="21" nillable="true" ma:displayName="MediaServiceBillingMetadata" ma:hidden="true" ma:internalName="MediaServiceBillingMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -25783,41 +26078,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="ebcefb84-3943-4c67-86e4-95e0d5522177" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="20a86c8e-58bd-487e-986c-19c6170a5cfd">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF5F1D7B-60C0-4FBF-8B8C-BDC0B34148DA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4FA6AAEC-01BE-4F1A-BF04-60E6E10A3AD9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="20a86c8e-58bd-487e-986c-19c6170a5cfd"/>
-    <ds:schemaRef ds:uri="ebcefb84-3943-4c67-86e4-95e0d5522177"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -25834,9 +26098,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4FA6AAEC-01BE-4F1A-BF04-60E6E10A3AD9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{164C19BA-5402-4A47-A207-296D1D3EE3AC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="20a86c8e-58bd-487e-986c-19c6170a5cfd"/>
+    <ds:schemaRef ds:uri="ebcefb84-3943-4c67-86e4-95e0d5522177"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Data/Pinellas_RedTide_Entero.xlsx
+++ b/Data/Pinellas_RedTide_Entero.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pinellasgov.sharepoint.com/sites/BCC-PW-ENVMT/Monitoring and Assessment/R/water_quality_dashboard/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bcc105701\OneDrive - Pinellas County\Desktop\R\water_quality_dashboard\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="13_ncr:1_{55142012-268F-4019-B347-60665F0AFF56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC6AC0A2-C30B-4713-9A73-76F32BB418EF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B6B200D-96E2-404E-9F91-02FE11EB635A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A3C8BE64-6FAF-4B04-9CDF-43C9CA65836E}"/>
+    <workbookView xWindow="-23865" yWindow="1635" windowWidth="21600" windowHeight="11295" xr2:uid="{A3C8BE64-6FAF-4B04-9CDF-43C9CA65836E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1446" uniqueCount="31">
   <si>
     <t>Site</t>
   </si>
@@ -127,6 +127,9 @@
   <si>
     <t>Treasure Island Beach Acess</t>
   </si>
+  <si>
+    <t>Fort Desoto Gulf Pier</t>
+  </si>
 </sst>
 </file>
 
@@ -134,7 +137,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -185,7 +188,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -212,20 +215,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
@@ -252,6 +255,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -568,11 +574,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72952526-ADD9-47FB-9AF2-808D0D3071F7}">
-  <dimension ref="A1:F1413"/>
+  <dimension ref="A1:F1441"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1393" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1403" sqref="I1403"/>
+      <pane ySplit="1" topLeftCell="A1427" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I1436" sqref="I1436"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26218,6 +26224,537 @@
       </c>
       <c r="F1413"/>
     </row>
+    <row r="1414" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1414" s="25">
+        <v>45768</v>
+      </c>
+      <c r="B1414" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1414" s="11">
+        <v>27.61336</v>
+      </c>
+      <c r="D1414" s="11">
+        <v>-82.737459999999999</v>
+      </c>
+      <c r="E1414" s="17">
+        <v>0</v>
+      </c>
+      <c r="F1414" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1415" s="25">
+        <f>A1414</f>
+        <v>45768</v>
+      </c>
+      <c r="B1415" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1415" s="11">
+        <v>27.698</v>
+      </c>
+      <c r="D1415" s="11">
+        <v>-82.738523000000001</v>
+      </c>
+      <c r="E1415" s="17">
+        <v>0</v>
+      </c>
+      <c r="F1415" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1416" s="25">
+        <f t="shared" ref="A1416:A1420" si="1">A1415</f>
+        <v>45768</v>
+      </c>
+      <c r="B1416" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1416" s="11">
+        <v>27.742989999999999</v>
+      </c>
+      <c r="D1416" s="11">
+        <v>-82.759140000000002</v>
+      </c>
+      <c r="E1416" s="17">
+        <v>0</v>
+      </c>
+      <c r="F1416" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1417" s="25">
+        <f t="shared" si="1"/>
+        <v>45768</v>
+      </c>
+      <c r="B1417" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1417" s="11">
+        <v>27.801079999999999</v>
+      </c>
+      <c r="D1417" s="11">
+        <v>-82.803179999999998</v>
+      </c>
+      <c r="E1417" s="17">
+        <v>0</v>
+      </c>
+      <c r="F1417" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1418" s="25">
+        <f t="shared" si="1"/>
+        <v>45768</v>
+      </c>
+      <c r="B1418" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1418" s="11">
+        <v>27.832253999999999</v>
+      </c>
+      <c r="D1418" s="11">
+        <v>-82.835544999999996</v>
+      </c>
+      <c r="E1418" s="17">
+        <v>0</v>
+      </c>
+      <c r="F1418" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1419" s="25">
+        <f t="shared" si="1"/>
+        <v>45768</v>
+      </c>
+      <c r="B1419" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1419" s="11">
+        <v>27.900386999999998</v>
+      </c>
+      <c r="D1419" s="11">
+        <v>-82.849378000000002</v>
+      </c>
+      <c r="E1419" s="17">
+        <v>0</v>
+      </c>
+      <c r="F1419" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1420" s="25">
+        <f t="shared" si="1"/>
+        <v>45768</v>
+      </c>
+      <c r="B1420" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1420" s="11">
+        <v>27.977964</v>
+      </c>
+      <c r="D1420" s="11">
+        <v>-82.832233000000002</v>
+      </c>
+      <c r="E1420" s="17">
+        <v>0</v>
+      </c>
+      <c r="F1420" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1421" s="25">
+        <v>45772</v>
+      </c>
+      <c r="B1421" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1421" s="11">
+        <v>27.61336</v>
+      </c>
+      <c r="D1421" s="11">
+        <v>-82.737459999999999</v>
+      </c>
+      <c r="E1421" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1422" s="25">
+        <v>45772</v>
+      </c>
+      <c r="B1422" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1422" s="11">
+        <v>27.698</v>
+      </c>
+      <c r="D1422" s="11">
+        <v>-82.738523000000001</v>
+      </c>
+      <c r="E1422" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1423" s="25">
+        <v>45772</v>
+      </c>
+      <c r="B1423" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1423" s="11">
+        <v>27.742989999999999</v>
+      </c>
+      <c r="D1423" s="11">
+        <v>-82.759140000000002</v>
+      </c>
+      <c r="E1423" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1424" s="25">
+        <v>45772</v>
+      </c>
+      <c r="B1424" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1424" s="11">
+        <v>27.801079999999999</v>
+      </c>
+      <c r="D1424" s="11">
+        <v>-82.803179999999998</v>
+      </c>
+      <c r="E1424" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1425" s="25">
+        <v>45772</v>
+      </c>
+      <c r="B1425" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1425" s="11">
+        <v>27.832253999999999</v>
+      </c>
+      <c r="D1425" s="11">
+        <v>-82.835544999999996</v>
+      </c>
+      <c r="E1425" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1426" s="25">
+        <v>45772</v>
+      </c>
+      <c r="B1426" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1426" s="11">
+        <v>27.900386999999998</v>
+      </c>
+      <c r="D1426" s="11">
+        <v>-82.849378000000002</v>
+      </c>
+      <c r="E1426" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1427" s="25">
+        <v>45772</v>
+      </c>
+      <c r="B1427" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1427" s="11">
+        <v>27.977964</v>
+      </c>
+      <c r="D1427" s="11">
+        <v>-82.832233000000002</v>
+      </c>
+      <c r="E1427" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1428" s="27">
+        <v>45779</v>
+      </c>
+      <c r="B1428" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1428" s="11">
+        <v>27.61336</v>
+      </c>
+      <c r="D1428" s="11">
+        <v>-82.737459999999999</v>
+      </c>
+      <c r="E1428" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1428"/>
+    </row>
+    <row r="1429" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1429" s="27">
+        <v>45779</v>
+      </c>
+      <c r="B1429" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1429" s="11">
+        <v>27.698</v>
+      </c>
+      <c r="D1429" s="11">
+        <v>-82.738523000000001</v>
+      </c>
+      <c r="E1429" s="17">
+        <v>0</v>
+      </c>
+      <c r="F1429"/>
+    </row>
+    <row r="1430" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1430" s="27">
+        <v>45779</v>
+      </c>
+      <c r="B1430" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1430" s="11">
+        <v>27.742989999999999</v>
+      </c>
+      <c r="D1430" s="11">
+        <v>-82.759140000000002</v>
+      </c>
+      <c r="E1430" s="17">
+        <v>0</v>
+      </c>
+      <c r="F1430"/>
+    </row>
+    <row r="1431" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1431" s="27">
+        <v>45779</v>
+      </c>
+      <c r="B1431" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1431" s="11">
+        <v>27.801079999999999</v>
+      </c>
+      <c r="D1431" s="11">
+        <v>-82.803179999999998</v>
+      </c>
+      <c r="E1431" s="17">
+        <v>0</v>
+      </c>
+      <c r="F1431"/>
+    </row>
+    <row r="1432" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1432" s="27">
+        <v>45779</v>
+      </c>
+      <c r="B1432" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1432" s="11">
+        <v>27.832253999999999</v>
+      </c>
+      <c r="D1432" s="11">
+        <v>-82.835544999999996</v>
+      </c>
+      <c r="E1432" s="17">
+        <v>0</v>
+      </c>
+      <c r="F1432"/>
+    </row>
+    <row r="1433" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1433" s="27">
+        <v>45779</v>
+      </c>
+      <c r="B1433" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1433" s="11">
+        <v>27.900386999999998</v>
+      </c>
+      <c r="D1433" s="11">
+        <v>-82.849378000000002</v>
+      </c>
+      <c r="E1433" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1433"/>
+    </row>
+    <row r="1434" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1434" s="27">
+        <v>45779</v>
+      </c>
+      <c r="B1434" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1434" s="11">
+        <v>27.977964</v>
+      </c>
+      <c r="D1434" s="11">
+        <v>-82.832233000000002</v>
+      </c>
+      <c r="E1434" s="17">
+        <v>0</v>
+      </c>
+      <c r="F1434"/>
+    </row>
+    <row r="1435" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1435" s="25">
+        <v>45783</v>
+      </c>
+      <c r="B1435" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1435" s="11">
+        <v>27.61336</v>
+      </c>
+      <c r="D1435" s="11">
+        <v>-82.737459999999999</v>
+      </c>
+      <c r="E1435" s="17">
+        <v>0</v>
+      </c>
+      <c r="F1435" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1436" s="25">
+        <v>45783</v>
+      </c>
+      <c r="B1436" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1436" s="11">
+        <v>27.698</v>
+      </c>
+      <c r="D1436" s="11">
+        <v>-82.738523000000001</v>
+      </c>
+      <c r="E1436" s="17">
+        <v>0</v>
+      </c>
+      <c r="F1436" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1437" s="25">
+        <v>45783</v>
+      </c>
+      <c r="B1437" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1437" s="11">
+        <v>27.742989999999999</v>
+      </c>
+      <c r="D1437" s="11">
+        <v>-82.759140000000002</v>
+      </c>
+      <c r="E1437" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1437" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1438" s="25">
+        <v>45783</v>
+      </c>
+      <c r="B1438" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1438" s="11">
+        <v>27.801079999999999</v>
+      </c>
+      <c r="D1438" s="11">
+        <v>-82.803179999999998</v>
+      </c>
+      <c r="E1438" s="17">
+        <v>0</v>
+      </c>
+      <c r="F1438" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1439" s="25">
+        <v>45783</v>
+      </c>
+      <c r="B1439" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1439" s="11">
+        <v>27.832253999999999</v>
+      </c>
+      <c r="D1439" s="11">
+        <v>-82.835544999999996</v>
+      </c>
+      <c r="E1439" s="17">
+        <v>0</v>
+      </c>
+      <c r="F1439" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1440" s="25">
+        <v>45783</v>
+      </c>
+      <c r="B1440" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1440" s="11">
+        <v>27.900386999999998</v>
+      </c>
+      <c r="D1440" s="11">
+        <v>-82.849378000000002</v>
+      </c>
+      <c r="E1440" s="17">
+        <v>0</v>
+      </c>
+      <c r="F1440" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1441" s="25">
+        <v>45783</v>
+      </c>
+      <c r="B1441" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1441" s="11">
+        <v>27.977964</v>
+      </c>
+      <c r="D1441" s="11">
+        <v>-82.832233000000002</v>
+      </c>
+      <c r="E1441" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1441" s="3">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -26225,17 +26762,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="ebcefb84-3943-4c67-86e4-95e0d5522177" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="20a86c8e-58bd-487e-986c-19c6170a5cfd">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -26244,7 +26770,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B730D8DC4DFB374C886B31D158660B04" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6c7b2a44c3204d196172482da32476cf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="20a86c8e-58bd-487e-986c-19c6170a5cfd" xmlns:ns3="ebcefb84-3943-4c67-86e4-95e0d5522177" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="447da8927e53f285c23cc8bbcad2da18" ns2:_="" ns3:_="">
     <xsd:import namespace="20a86c8e-58bd-487e-986c-19c6170a5cfd"/>
@@ -26457,18 +26983,18 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F88997B-DC6B-4B30-B85B-DD4C61A33785}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ebcefb84-3943-4c67-86e4-95e0d5522177"/>
-    <ds:schemaRef ds:uri="20a86c8e-58bd-487e-986c-19c6170a5cfd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="ebcefb84-3943-4c67-86e4-95e0d5522177" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="20a86c8e-58bd-487e-986c-19c6170a5cfd">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4FA6AAEC-01BE-4F1A-BF04-60E6E10A3AD9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -26476,7 +27002,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{164C19BA-5402-4A47-A207-296D1D3EE3AC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -26493,4 +27019,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F88997B-DC6B-4B30-B85B-DD4C61A33785}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ebcefb84-3943-4c67-86e4-95e0d5522177"/>
+    <ds:schemaRef ds:uri="20a86c8e-58bd-487e-986c-19c6170a5cfd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>